--- a/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.55162522050101</v>
+        <v>17.55162522050096</v>
       </c>
       <c r="C2">
-        <v>11.39639192847078</v>
+        <v>11.39639192847061</v>
       </c>
       <c r="D2">
-        <v>3.341512682015043</v>
+        <v>3.341512682015176</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.15829063306155</v>
+        <v>37.15829063306154</v>
       </c>
       <c r="G2">
-        <v>28.01357922552484</v>
+        <v>28.01357922552486</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.75594911265598</v>
+        <v>11.75594911265596</v>
       </c>
       <c r="J2">
-        <v>15.37151127237956</v>
+        <v>15.37151127237949</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.99184102009503</v>
+        <v>17.99184102009499</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>16.3203805028763</v>
       </c>
       <c r="C3">
-        <v>10.67337189664524</v>
+        <v>10.67337189664525</v>
       </c>
       <c r="D3">
-        <v>3.316808352232011</v>
+        <v>3.316808352231749</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.33914133294501</v>
+        <v>35.33914133294509</v>
       </c>
       <c r="G3">
-        <v>26.80722125284423</v>
+        <v>26.80722125284424</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.5252011244211</v>
+        <v>15.52520112442111</v>
       </c>
       <c r="C4">
-        <v>10.20841557143999</v>
+        <v>10.20841557144003</v>
       </c>
       <c r="D4">
-        <v>3.300768155479398</v>
+        <v>3.300768155479335</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>34.212248886761</v>
       </c>
       <c r="G4">
-        <v>26.06662859052545</v>
+        <v>26.06662859052544</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.84155678622506</v>
+        <v>10.84155678622507</v>
       </c>
       <c r="J4">
-        <v>13.70017674724468</v>
+        <v>13.7001767472447</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.92093167949074</v>
+        <v>15.92093167949076</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.19115300292048</v>
+        <v>15.19115300292058</v>
       </c>
       <c r="C5">
-        <v>10.01360298646246</v>
+        <v>10.01360298646219</v>
       </c>
       <c r="D5">
-        <v>3.294014840140597</v>
+        <v>3.294014840140732</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.75092200200861</v>
+        <v>33.75092200200857</v>
       </c>
       <c r="G5">
-        <v>25.76509272526517</v>
+        <v>25.76509272526516</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.58090418774299</v>
+        <v>15.580904187743</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.1350759641496</v>
+        <v>15.13507596414963</v>
       </c>
       <c r="C6">
-        <v>9.980930773955425</v>
+        <v>9.980930773955613</v>
       </c>
       <c r="D6">
-        <v>3.292880434160708</v>
+        <v>3.292880434160576</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.67420482281653</v>
+        <v>33.67420482281648</v>
       </c>
       <c r="G6">
-        <v>25.71504646736142</v>
+        <v>25.71504646736136</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.67606983987685</v>
+        <v>10.67606983987689</v>
       </c>
       <c r="J6">
-        <v>13.3792029617329</v>
+        <v>13.37920296173298</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.52386064280557</v>
+        <v>15.52386064280558</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.52073674294348</v>
+        <v>15.52073674294344</v>
       </c>
       <c r="C7">
-        <v>10.20580993822802</v>
+        <v>10.20580993822808</v>
       </c>
       <c r="D7">
-        <v>3.30067795253829</v>
+        <v>3.300677952538027</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.20603522836132</v>
+        <v>34.20603522836119</v>
       </c>
       <c r="G7">
-        <v>26.06256056971052</v>
+        <v>26.0625605697104</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.83964278493021</v>
+        <v>10.83964278493016</v>
       </c>
       <c r="J7">
-        <v>13.69650209951389</v>
+        <v>13.69650209951386</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.91638487944273</v>
+        <v>15.91638487944269</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.13513189056172</v>
+        <v>17.13513189056181</v>
       </c>
       <c r="C8">
-        <v>11.15141987518625</v>
+        <v>11.15141987518628</v>
       </c>
       <c r="D8">
-        <v>3.333176932283639</v>
+        <v>3.333176932283438</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.53331001655683</v>
+        <v>36.53331001655686</v>
       </c>
       <c r="G8">
         <v>27.59772618137357</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.56087039521682</v>
+        <v>11.56087039521687</v>
       </c>
       <c r="J8">
-        <v>15.02749182151285</v>
+        <v>15.02749182151295</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.56504207494305</v>
+        <v>17.56504207494307</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.99735448457264</v>
+        <v>19.9973544845727</v>
       </c>
       <c r="C9">
-        <v>12.8422480283939</v>
+        <v>12.84224802839387</v>
       </c>
       <c r="D9">
-        <v>3.389891691018993</v>
+        <v>3.389891691018716</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>41.00671145026311</v>
+        <v>41.00671145026318</v>
       </c>
       <c r="G9">
         <v>30.60188617670167</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.96883884529365</v>
+        <v>12.96883884529369</v>
       </c>
       <c r="J9">
-        <v>17.39602576726656</v>
+        <v>17.39602576726663</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.5106808978125</v>
+        <v>20.51068089781248</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.92630819328593</v>
+        <v>21.92630819328591</v>
       </c>
       <c r="C10">
-        <v>13.99057470400309</v>
+        <v>13.99057470400337</v>
       </c>
       <c r="D10">
-        <v>3.427156089198002</v>
+        <v>3.42715608919801</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.2308745536326</v>
+        <v>44.23087455363248</v>
       </c>
       <c r="G10">
-        <v>32.80049139728364</v>
+        <v>32.80049139728354</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.99928412381741</v>
+        <v>13.99928412381743</v>
       </c>
       <c r="J10">
-        <v>18.99720201494998</v>
+        <v>18.99720201495007</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.51335521629695</v>
+        <v>22.51335521629701</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.76885085143086</v>
+        <v>22.76885085143095</v>
       </c>
       <c r="C11">
-        <v>14.49420281153401</v>
+        <v>14.49420281153424</v>
       </c>
       <c r="D11">
-        <v>3.443127321445075</v>
+        <v>3.443127321444886</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.68491541012379</v>
+        <v>45.68491541012369</v>
       </c>
       <c r="G11">
-        <v>33.79937336720688</v>
+        <v>33.79937336720678</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.47081655949771</v>
+        <v>14.47081655949776</v>
       </c>
       <c r="J11">
-        <v>19.69762723685895</v>
+        <v>19.69762723685908</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.3928772927357</v>
+        <v>23.39287729273581</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.08313426348905</v>
+        <v>23.08313426348912</v>
       </c>
       <c r="C12">
-        <v>14.68237858056461</v>
+        <v>14.68237858056447</v>
       </c>
       <c r="D12">
-        <v>3.449032257592499</v>
+        <v>3.449032257592625</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.23393447942757</v>
+        <v>46.23393447942772</v>
       </c>
       <c r="G12">
-        <v>34.1775933466361</v>
+        <v>34.17759334663621</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.69056633653597</v>
+        <v>14.690566336536</v>
       </c>
       <c r="J12">
-        <v>19.95905103677102</v>
+        <v>19.95905103677105</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.72173623867558</v>
+        <v>23.72173623867561</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.01565541094038</v>
+        <v>23.01565541094035</v>
       </c>
       <c r="C13">
-        <v>14.6419616024882</v>
+        <v>14.64196160248828</v>
       </c>
       <c r="D13">
-        <v>3.447766915629146</v>
+        <v>3.447766915629352</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>46.11575933933707</v>
       </c>
       <c r="G13">
-        <v>34.09613510785249</v>
+        <v>34.09613510785246</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>14.64332595090933</v>
       </c>
       <c r="J13">
-        <v>19.90291465908046</v>
+        <v>19.90291465908047</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.65109145065716</v>
+        <v>23.6510914506572</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.79480114263012</v>
+        <v>22.79480114263009</v>
       </c>
       <c r="C14">
-        <v>14.50973399455257</v>
+        <v>14.50973399455268</v>
       </c>
       <c r="D14">
-        <v>3.443616001579387</v>
+        <v>3.44361600157926</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.73011374436705</v>
+        <v>45.73011374436697</v>
       </c>
       <c r="G14">
-        <v>33.83048927376016</v>
+        <v>33.83048927376011</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.48893501140615</v>
+        <v>14.48893501140614</v>
       </c>
       <c r="J14">
-        <v>19.71920983345835</v>
+        <v>19.71920983345832</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.42001476039813</v>
+        <v>23.42001476039812</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.65890855600266</v>
+        <v>22.65890855600248</v>
       </c>
       <c r="C15">
-        <v>14.42841549085953</v>
+        <v>14.4284154908597</v>
       </c>
       <c r="D15">
-        <v>3.441054763378482</v>
+        <v>3.44105476337855</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.49369591246957</v>
+        <v>45.49369591246953</v>
       </c>
       <c r="G15">
-        <v>33.66777495544422</v>
+        <v>33.66777495544421</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.40627337889416</v>
+        <v>14.40627337889414</v>
       </c>
       <c r="J15">
-        <v>19.60619555420772</v>
+        <v>19.60619555420768</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.2779376995801</v>
+        <v>23.27793769958005</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.87056404253104</v>
+        <v>21.87056404253119</v>
       </c>
       <c r="C16">
-        <v>13.95729714340744</v>
+        <v>13.9572971434077</v>
       </c>
       <c r="D16">
-        <v>3.426092424759225</v>
+        <v>3.426092424759165</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.13561124257063</v>
+        <v>44.13561124257056</v>
       </c>
       <c r="G16">
-        <v>32.73519707098953</v>
+        <v>32.73519707098946</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.96865890687984</v>
+        <v>13.96865890687987</v>
       </c>
       <c r="J16">
-        <v>18.95088216213102</v>
+        <v>18.9508821621312</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.45526993285856</v>
+        <v>22.45526993285857</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.37816243815442</v>
+        <v>21.37816243815451</v>
       </c>
       <c r="C17">
-        <v>13.66358423092522</v>
+        <v>13.66358423092508</v>
       </c>
       <c r="D17">
-        <v>3.416660895823731</v>
+        <v>3.416660895823662</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>13.70028184645998</v>
       </c>
       <c r="J17">
-        <v>18.54184744645207</v>
+        <v>18.54184744645205</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.94274457129991</v>
+        <v>21.94274457129996</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.0916396279517</v>
+        <v>21.09163962795169</v>
       </c>
       <c r="C18">
-        <v>13.49287243501233</v>
+        <v>13.49287243501235</v>
       </c>
       <c r="D18">
-        <v>3.411143951339785</v>
+        <v>3.411143951339662</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.81714213558539</v>
+        <v>42.81714213558536</v>
       </c>
       <c r="G18">
-        <v>31.83350331379476</v>
+        <v>31.83350331379472</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.54590982684243</v>
+        <v>13.54590982684244</v>
       </c>
       <c r="J18">
-        <v>18.30393592765056</v>
+        <v>18.30393592765058</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.64496583982551</v>
+        <v>21.6449658398255</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.99405270893586</v>
+        <v>20.99405270893595</v>
       </c>
       <c r="C19">
-        <v>13.43476288755749</v>
+        <v>13.43476288755739</v>
       </c>
       <c r="D19">
-        <v>3.40926024082707</v>
+        <v>3.409260240827133</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.65366221299085</v>
+        <v>42.65366221299101</v>
       </c>
       <c r="G19">
-        <v>31.72196900226425</v>
+        <v>31.72196900226436</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.49363742273254</v>
+        <v>13.49363742273257</v>
       </c>
       <c r="J19">
-        <v>18.2229229009531</v>
+        <v>18.22292290095317</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.54362047992239</v>
+        <v>21.54362047992242</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.4309198698247</v>
+        <v>21.43091986982456</v>
       </c>
       <c r="C20">
-        <v>13.69503319543649</v>
+        <v>13.69503319543663</v>
       </c>
       <c r="D20">
-        <v>3.417674453391407</v>
+        <v>3.41767445339148</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.3884951460137</v>
+        <v>43.38849514601353</v>
       </c>
       <c r="G20">
-        <v>32.22378273332556</v>
+        <v>32.22378273332546</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.72885113781221</v>
+        <v>13.72885113781216</v>
       </c>
       <c r="J20">
-        <v>18.58566227686012</v>
+        <v>18.58566227686006</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.99761071042409</v>
+        <v>21.99761071042404</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.85979863618883</v>
+        <v>22.85979863618878</v>
       </c>
       <c r="C21">
-        <v>14.5486399153929</v>
+        <v>14.54863991539291</v>
       </c>
       <c r="D21">
-        <v>3.444839122685156</v>
+        <v>3.444839122685219</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.8434280399301</v>
+        <v>45.84342803993008</v>
       </c>
       <c r="G21">
         <v>33.90851520132127</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.53433680527646</v>
+        <v>14.53433680527642</v>
       </c>
       <c r="J21">
-        <v>19.77327004833536</v>
+        <v>19.77327004833533</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.48799861063448</v>
+        <v>23.48799861063442</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.76599684225984</v>
+        <v>23.76599684225978</v>
       </c>
       <c r="C22">
-        <v>15.09182477656768</v>
+        <v>15.09182477656763</v>
       </c>
       <c r="D22">
-        <v>3.46175832676065</v>
+        <v>3.461758326760726</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.43877417680135</v>
+        <v>47.43877417680121</v>
       </c>
       <c r="G22">
-        <v>35.0095183285765</v>
+        <v>35.00951832857641</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.17045291352997</v>
+        <v>15.17045291352994</v>
       </c>
       <c r="J22">
-        <v>20.52733917505116</v>
+        <v>20.52733917505111</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.43777872778156</v>
+        <v>24.43777872778152</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.28477950352969</v>
+        <v>23.28477950352978</v>
       </c>
       <c r="C23">
-        <v>14.80320218968879</v>
+        <v>14.80320218968874</v>
       </c>
       <c r="D23">
-        <v>3.452805214081276</v>
+        <v>3.452805214081138</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.58803113321107</v>
+        <v>46.5880311332111</v>
       </c>
       <c r="G23">
-        <v>34.42182483209446</v>
+        <v>34.42182483209448</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.83192588383262</v>
+        <v>14.83192588383258</v>
       </c>
       <c r="J23">
-        <v>20.12682400499387</v>
+        <v>20.12682400499397</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.40707895183845</v>
+        <v>21.40707895183849</v>
       </c>
       <c r="C24">
-        <v>13.6808208998621</v>
+        <v>13.68082089986176</v>
       </c>
       <c r="D24">
-        <v>3.417216518619024</v>
+        <v>3.417216518619019</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.71593521498436</v>
+        <v>13.71593521498434</v>
       </c>
       <c r="J24">
-        <v>18.56586217928798</v>
+        <v>18.56586217928792</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.9728154749309</v>
+        <v>21.97281547493086</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.25445767404044</v>
+        <v>19.25445767404053</v>
       </c>
       <c r="C25">
-        <v>12.4018100469948</v>
+        <v>12.4018100469947</v>
       </c>
       <c r="D25">
-        <v>3.375313394164681</v>
+        <v>3.375313394164615</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.80739205816334</v>
+        <v>39.80739205816347</v>
       </c>
       <c r="G25">
-        <v>29.79060136355866</v>
+        <v>29.79060136355872</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.58878929306574</v>
+        <v>12.58878929306572</v>
       </c>
       <c r="J25">
-        <v>16.78034879270162</v>
+        <v>16.78034879270167</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.74325006993295</v>
+        <v>19.74325006993302</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.55162522050096</v>
+        <v>17.55162522050101</v>
       </c>
       <c r="C2">
-        <v>11.39639192847061</v>
+        <v>11.39639192847078</v>
       </c>
       <c r="D2">
-        <v>3.341512682015176</v>
+        <v>3.341512682015043</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.15829063306154</v>
+        <v>37.15829063306155</v>
       </c>
       <c r="G2">
-        <v>28.01357922552486</v>
+        <v>28.01357922552484</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.75594911265596</v>
+        <v>11.75594911265598</v>
       </c>
       <c r="J2">
-        <v>15.37151127237949</v>
+        <v>15.37151127237956</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.99184102009499</v>
+        <v>17.99184102009503</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>16.3203805028763</v>
       </c>
       <c r="C3">
-        <v>10.67337189664525</v>
+        <v>10.67337189664524</v>
       </c>
       <c r="D3">
-        <v>3.316808352231749</v>
+        <v>3.316808352232011</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.33914133294509</v>
+        <v>35.33914133294501</v>
       </c>
       <c r="G3">
-        <v>26.80722125284424</v>
+        <v>26.80722125284423</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.52520112442111</v>
+        <v>15.5252011244211</v>
       </c>
       <c r="C4">
-        <v>10.20841557144003</v>
+        <v>10.20841557143999</v>
       </c>
       <c r="D4">
-        <v>3.300768155479335</v>
+        <v>3.300768155479398</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>34.212248886761</v>
       </c>
       <c r="G4">
-        <v>26.06662859052544</v>
+        <v>26.06662859052545</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.84155678622507</v>
+        <v>10.84155678622506</v>
       </c>
       <c r="J4">
-        <v>13.7001767472447</v>
+        <v>13.70017674724468</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.92093167949076</v>
+        <v>15.92093167949074</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.19115300292058</v>
+        <v>15.19115300292048</v>
       </c>
       <c r="C5">
-        <v>10.01360298646219</v>
+        <v>10.01360298646246</v>
       </c>
       <c r="D5">
-        <v>3.294014840140732</v>
+        <v>3.294014840140597</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.75092200200857</v>
+        <v>33.75092200200861</v>
       </c>
       <c r="G5">
-        <v>25.76509272526516</v>
+        <v>25.76509272526517</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.580904187743</v>
+        <v>15.58090418774299</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.13507596414963</v>
+        <v>15.1350759641496</v>
       </c>
       <c r="C6">
-        <v>9.980930773955613</v>
+        <v>9.980930773955425</v>
       </c>
       <c r="D6">
-        <v>3.292880434160576</v>
+        <v>3.292880434160708</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.67420482281648</v>
+        <v>33.67420482281653</v>
       </c>
       <c r="G6">
-        <v>25.71504646736136</v>
+        <v>25.71504646736142</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.67606983987689</v>
+        <v>10.67606983987685</v>
       </c>
       <c r="J6">
-        <v>13.37920296173298</v>
+        <v>13.3792029617329</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.52386064280558</v>
+        <v>15.52386064280557</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.52073674294344</v>
+        <v>15.52073674294348</v>
       </c>
       <c r="C7">
-        <v>10.20580993822808</v>
+        <v>10.20580993822802</v>
       </c>
       <c r="D7">
-        <v>3.300677952538027</v>
+        <v>3.30067795253829</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.20603522836119</v>
+        <v>34.20603522836132</v>
       </c>
       <c r="G7">
-        <v>26.0625605697104</v>
+        <v>26.06256056971052</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.83964278493016</v>
+        <v>10.83964278493021</v>
       </c>
       <c r="J7">
-        <v>13.69650209951386</v>
+        <v>13.69650209951389</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.91638487944269</v>
+        <v>15.91638487944273</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.13513189056181</v>
+        <v>17.13513189056172</v>
       </c>
       <c r="C8">
-        <v>11.15141987518628</v>
+        <v>11.15141987518625</v>
       </c>
       <c r="D8">
-        <v>3.333176932283438</v>
+        <v>3.333176932283639</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.53331001655686</v>
+        <v>36.53331001655683</v>
       </c>
       <c r="G8">
         <v>27.59772618137357</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.56087039521687</v>
+        <v>11.56087039521682</v>
       </c>
       <c r="J8">
-        <v>15.02749182151295</v>
+        <v>15.02749182151285</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.56504207494307</v>
+        <v>17.56504207494305</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.9973544845727</v>
+        <v>19.99735448457264</v>
       </c>
       <c r="C9">
-        <v>12.84224802839387</v>
+        <v>12.8422480283939</v>
       </c>
       <c r="D9">
-        <v>3.389891691018716</v>
+        <v>3.389891691018993</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>41.00671145026318</v>
+        <v>41.00671145026311</v>
       </c>
       <c r="G9">
         <v>30.60188617670167</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.96883884529369</v>
+        <v>12.96883884529365</v>
       </c>
       <c r="J9">
-        <v>17.39602576726663</v>
+        <v>17.39602576726656</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.51068089781248</v>
+        <v>20.5106808978125</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.92630819328591</v>
+        <v>21.92630819328593</v>
       </c>
       <c r="C10">
-        <v>13.99057470400337</v>
+        <v>13.99057470400309</v>
       </c>
       <c r="D10">
-        <v>3.42715608919801</v>
+        <v>3.427156089198002</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.23087455363248</v>
+        <v>44.2308745536326</v>
       </c>
       <c r="G10">
-        <v>32.80049139728354</v>
+        <v>32.80049139728364</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.99928412381743</v>
+        <v>13.99928412381741</v>
       </c>
       <c r="J10">
-        <v>18.99720201495007</v>
+        <v>18.99720201494998</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.51335521629701</v>
+        <v>22.51335521629695</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.76885085143095</v>
+        <v>22.76885085143086</v>
       </c>
       <c r="C11">
-        <v>14.49420281153424</v>
+        <v>14.49420281153401</v>
       </c>
       <c r="D11">
-        <v>3.443127321444886</v>
+        <v>3.443127321445075</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.68491541012369</v>
+        <v>45.68491541012379</v>
       </c>
       <c r="G11">
-        <v>33.79937336720678</v>
+        <v>33.79937336720688</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.47081655949776</v>
+        <v>14.47081655949771</v>
       </c>
       <c r="J11">
-        <v>19.69762723685908</v>
+        <v>19.69762723685895</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.39287729273581</v>
+        <v>23.3928772927357</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.08313426348912</v>
+        <v>23.08313426348905</v>
       </c>
       <c r="C12">
-        <v>14.68237858056447</v>
+        <v>14.68237858056461</v>
       </c>
       <c r="D12">
-        <v>3.449032257592625</v>
+        <v>3.449032257592499</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.23393447942772</v>
+        <v>46.23393447942757</v>
       </c>
       <c r="G12">
-        <v>34.17759334663621</v>
+        <v>34.1775933466361</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.690566336536</v>
+        <v>14.69056633653597</v>
       </c>
       <c r="J12">
-        <v>19.95905103677105</v>
+        <v>19.95905103677102</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.72173623867561</v>
+        <v>23.72173623867558</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.01565541094035</v>
+        <v>23.01565541094038</v>
       </c>
       <c r="C13">
-        <v>14.64196160248828</v>
+        <v>14.6419616024882</v>
       </c>
       <c r="D13">
-        <v>3.447766915629352</v>
+        <v>3.447766915629146</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>46.11575933933707</v>
       </c>
       <c r="G13">
-        <v>34.09613510785246</v>
+        <v>34.09613510785249</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>14.64332595090933</v>
       </c>
       <c r="J13">
-        <v>19.90291465908047</v>
+        <v>19.90291465908046</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.6510914506572</v>
+        <v>23.65109145065716</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.79480114263009</v>
+        <v>22.79480114263012</v>
       </c>
       <c r="C14">
-        <v>14.50973399455268</v>
+        <v>14.50973399455257</v>
       </c>
       <c r="D14">
-        <v>3.44361600157926</v>
+        <v>3.443616001579387</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.73011374436697</v>
+        <v>45.73011374436705</v>
       </c>
       <c r="G14">
-        <v>33.83048927376011</v>
+        <v>33.83048927376016</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.48893501140614</v>
+        <v>14.48893501140615</v>
       </c>
       <c r="J14">
-        <v>19.71920983345832</v>
+        <v>19.71920983345835</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.42001476039812</v>
+        <v>23.42001476039813</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.65890855600248</v>
+        <v>22.65890855600266</v>
       </c>
       <c r="C15">
-        <v>14.4284154908597</v>
+        <v>14.42841549085953</v>
       </c>
       <c r="D15">
-        <v>3.44105476337855</v>
+        <v>3.441054763378482</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.49369591246953</v>
+        <v>45.49369591246957</v>
       </c>
       <c r="G15">
-        <v>33.66777495544421</v>
+        <v>33.66777495544422</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.40627337889414</v>
+        <v>14.40627337889416</v>
       </c>
       <c r="J15">
-        <v>19.60619555420768</v>
+        <v>19.60619555420772</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.27793769958005</v>
+        <v>23.2779376995801</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.87056404253119</v>
+        <v>21.87056404253104</v>
       </c>
       <c r="C16">
-        <v>13.9572971434077</v>
+        <v>13.95729714340744</v>
       </c>
       <c r="D16">
-        <v>3.426092424759165</v>
+        <v>3.426092424759225</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.13561124257056</v>
+        <v>44.13561124257063</v>
       </c>
       <c r="G16">
-        <v>32.73519707098946</v>
+        <v>32.73519707098953</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.96865890687987</v>
+        <v>13.96865890687984</v>
       </c>
       <c r="J16">
-        <v>18.9508821621312</v>
+        <v>18.95088216213102</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.45526993285857</v>
+        <v>22.45526993285856</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.37816243815451</v>
+        <v>21.37816243815442</v>
       </c>
       <c r="C17">
-        <v>13.66358423092508</v>
+        <v>13.66358423092522</v>
       </c>
       <c r="D17">
-        <v>3.416660895823662</v>
+        <v>3.416660895823731</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>13.70028184645998</v>
       </c>
       <c r="J17">
-        <v>18.54184744645205</v>
+        <v>18.54184744645207</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.94274457129996</v>
+        <v>21.94274457129991</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.09163962795169</v>
+        <v>21.0916396279517</v>
       </c>
       <c r="C18">
-        <v>13.49287243501235</v>
+        <v>13.49287243501233</v>
       </c>
       <c r="D18">
-        <v>3.411143951339662</v>
+        <v>3.411143951339785</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.81714213558536</v>
+        <v>42.81714213558539</v>
       </c>
       <c r="G18">
-        <v>31.83350331379472</v>
+        <v>31.83350331379476</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.54590982684244</v>
+        <v>13.54590982684243</v>
       </c>
       <c r="J18">
-        <v>18.30393592765058</v>
+        <v>18.30393592765056</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.6449658398255</v>
+        <v>21.64496583982551</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.99405270893595</v>
+        <v>20.99405270893586</v>
       </c>
       <c r="C19">
-        <v>13.43476288755739</v>
+        <v>13.43476288755749</v>
       </c>
       <c r="D19">
-        <v>3.409260240827133</v>
+        <v>3.40926024082707</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.65366221299101</v>
+        <v>42.65366221299085</v>
       </c>
       <c r="G19">
-        <v>31.72196900226436</v>
+        <v>31.72196900226425</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.49363742273257</v>
+        <v>13.49363742273254</v>
       </c>
       <c r="J19">
-        <v>18.22292290095317</v>
+        <v>18.2229229009531</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.54362047992242</v>
+        <v>21.54362047992239</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.43091986982456</v>
+        <v>21.4309198698247</v>
       </c>
       <c r="C20">
-        <v>13.69503319543663</v>
+        <v>13.69503319543649</v>
       </c>
       <c r="D20">
-        <v>3.41767445339148</v>
+        <v>3.417674453391407</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.38849514601353</v>
+        <v>43.3884951460137</v>
       </c>
       <c r="G20">
-        <v>32.22378273332546</v>
+        <v>32.22378273332556</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.72885113781216</v>
+        <v>13.72885113781221</v>
       </c>
       <c r="J20">
-        <v>18.58566227686006</v>
+        <v>18.58566227686012</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.99761071042404</v>
+        <v>21.99761071042409</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.85979863618878</v>
+        <v>22.85979863618883</v>
       </c>
       <c r="C21">
-        <v>14.54863991539291</v>
+        <v>14.5486399153929</v>
       </c>
       <c r="D21">
-        <v>3.444839122685219</v>
+        <v>3.444839122685156</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.84342803993008</v>
+        <v>45.8434280399301</v>
       </c>
       <c r="G21">
         <v>33.90851520132127</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.53433680527642</v>
+        <v>14.53433680527646</v>
       </c>
       <c r="J21">
-        <v>19.77327004833533</v>
+        <v>19.77327004833536</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.48799861063442</v>
+        <v>23.48799861063448</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.76599684225978</v>
+        <v>23.76599684225984</v>
       </c>
       <c r="C22">
-        <v>15.09182477656763</v>
+        <v>15.09182477656768</v>
       </c>
       <c r="D22">
-        <v>3.461758326760726</v>
+        <v>3.46175832676065</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.43877417680121</v>
+        <v>47.43877417680135</v>
       </c>
       <c r="G22">
-        <v>35.00951832857641</v>
+        <v>35.0095183285765</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.17045291352994</v>
+        <v>15.17045291352997</v>
       </c>
       <c r="J22">
-        <v>20.52733917505111</v>
+        <v>20.52733917505116</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.43777872778152</v>
+        <v>24.43777872778156</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.28477950352978</v>
+        <v>23.28477950352969</v>
       </c>
       <c r="C23">
-        <v>14.80320218968874</v>
+        <v>14.80320218968879</v>
       </c>
       <c r="D23">
-        <v>3.452805214081138</v>
+        <v>3.452805214081276</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.5880311332111</v>
+        <v>46.58803113321107</v>
       </c>
       <c r="G23">
-        <v>34.42182483209448</v>
+        <v>34.42182483209446</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.83192588383258</v>
+        <v>14.83192588383262</v>
       </c>
       <c r="J23">
-        <v>20.12682400499397</v>
+        <v>20.12682400499387</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.40707895183849</v>
+        <v>21.40707895183845</v>
       </c>
       <c r="C24">
-        <v>13.68082089986176</v>
+        <v>13.6808208998621</v>
       </c>
       <c r="D24">
-        <v>3.417216518619019</v>
+        <v>3.417216518619024</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.71593521498434</v>
+        <v>13.71593521498436</v>
       </c>
       <c r="J24">
-        <v>18.56586217928792</v>
+        <v>18.56586217928798</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.97281547493086</v>
+        <v>21.9728154749309</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.25445767404053</v>
+        <v>19.25445767404044</v>
       </c>
       <c r="C25">
-        <v>12.4018100469947</v>
+        <v>12.4018100469948</v>
       </c>
       <c r="D25">
-        <v>3.375313394164615</v>
+        <v>3.375313394164681</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.80739205816347</v>
+        <v>39.80739205816334</v>
       </c>
       <c r="G25">
-        <v>29.79060136355872</v>
+        <v>29.79060136355866</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.58878929306572</v>
+        <v>12.58878929306574</v>
       </c>
       <c r="J25">
-        <v>16.78034879270167</v>
+        <v>16.78034879270162</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.74325006993302</v>
+        <v>19.74325006993295</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.55162522050101</v>
+        <v>17.55094573692708</v>
       </c>
       <c r="C2">
-        <v>11.39639192847078</v>
+        <v>11.39560674681218</v>
       </c>
       <c r="D2">
-        <v>3.341512682015043</v>
+        <v>3.342709661306279</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.15829063306155</v>
+        <v>37.12286152456234</v>
       </c>
       <c r="G2">
-        <v>28.01357922552484</v>
+        <v>26.71094670632923</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>28.04990447386226</v>
       </c>
       <c r="I2">
-        <v>11.75594911265598</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.37151127237956</v>
+        <v>11.75432681010393</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.37078085656296</v>
       </c>
       <c r="L2">
-        <v>17.99184102009503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>17.99281203822441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.3203805028763</v>
+        <v>16.31991988958346</v>
       </c>
       <c r="C3">
-        <v>10.67337189664524</v>
+        <v>10.67286486926154</v>
       </c>
       <c r="D3">
-        <v>3.316808352232011</v>
+        <v>3.317597863023592</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.33914133294501</v>
+        <v>35.30611182249665</v>
       </c>
       <c r="G3">
-        <v>26.80722125284423</v>
+        <v>25.28007116307411</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.84246421675729</v>
       </c>
       <c r="I3">
-        <v>11.18973253776033</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.35524564104688</v>
+        <v>11.18827786401622</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.35476714809514</v>
       </c>
       <c r="L3">
-        <v>16.73187798648135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>16.73288646272308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.5252011244211</v>
+        <v>15.52487190612982</v>
       </c>
       <c r="C4">
-        <v>10.20841557143999</v>
+        <v>10.2080842773383</v>
       </c>
       <c r="D4">
-        <v>3.300768155479398</v>
+        <v>3.301302770560435</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.212248886761</v>
+        <v>34.18076171022443</v>
       </c>
       <c r="G4">
-        <v>26.06662859052545</v>
+        <v>24.38841969384995</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>26.10125647714858</v>
       </c>
       <c r="I4">
-        <v>10.84155678622506</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13.70017674724468</v>
+        <v>10.84021425560138</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.69985512413348</v>
       </c>
       <c r="L4">
-        <v>15.92093167949074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>15.92195651504577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.19115300292048</v>
+        <v>15.19087679061746</v>
       </c>
       <c r="C5">
-        <v>10.01360298646246</v>
+        <v>10.01334484436613</v>
       </c>
       <c r="D5">
-        <v>3.294014840140597</v>
+        <v>3.294444380923558</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.75092200200861</v>
+        <v>33.72008074067651</v>
       </c>
       <c r="G5">
-        <v>25.76509272526517</v>
+        <v>24.02205312650047</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25.79948288585624</v>
       </c>
       <c r="I5">
-        <v>10.69963485090017</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>13.42532240960336</v>
+        <v>10.69834041642221</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.4250655440826</v>
       </c>
       <c r="L5">
-        <v>15.58090418774299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15.58193419778439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.1350759641496</v>
+        <v>15.13480852688174</v>
       </c>
       <c r="C6">
-        <v>9.980930773955425</v>
+        <v>9.980684880456895</v>
       </c>
       <c r="D6">
-        <v>3.292880434160708</v>
+        <v>3.293292454430096</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.67420482281653</v>
+        <v>33.64347186416053</v>
       </c>
       <c r="G6">
-        <v>25.71504646736142</v>
+        <v>23.961046172418</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25.74939794795106</v>
       </c>
       <c r="I6">
-        <v>10.67606983987685</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>13.3792029617329</v>
+        <v>10.67478353829161</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.37895690771484</v>
       </c>
       <c r="L6">
-        <v>15.52386064280557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>15.52489142683745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.52073674294348</v>
+        <v>15.52040824141882</v>
       </c>
       <c r="C7">
-        <v>10.20580993822802</v>
+        <v>10.2054796240512</v>
       </c>
       <c r="D7">
-        <v>3.30067795253829</v>
+        <v>3.301211155437061</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.20603522836132</v>
+        <v>34.17455669246812</v>
       </c>
       <c r="G7">
-        <v>26.06256056971052</v>
+        <v>24.38349050769282</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>26.09718519732686</v>
       </c>
       <c r="I7">
-        <v>10.83964278493021</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>13.69650209951389</v>
+        <v>10.83830089315772</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.69618134600333</v>
       </c>
       <c r="L7">
-        <v>15.91638487944273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15.91740979060104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.13513189056172</v>
+        <v>17.13452862867764</v>
       </c>
       <c r="C8">
-        <v>11.15141987518625</v>
+        <v>11.1507297511014</v>
       </c>
       <c r="D8">
-        <v>3.333176932283639</v>
+        <v>3.334234380233291</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.53331001655683</v>
+        <v>36.49869406848983</v>
       </c>
       <c r="G8">
-        <v>27.59772618137357</v>
+        <v>26.22043861281898</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.63366829388839</v>
       </c>
       <c r="I8">
-        <v>11.56087039521682</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15.02749182151285</v>
+        <v>11.55930403323537</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.02684798373828</v>
       </c>
       <c r="L8">
-        <v>17.56504207494305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>17.56602749929432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.99735448457264</v>
+        <v>19.99617797197977</v>
       </c>
       <c r="C9">
-        <v>12.8422480283939</v>
+        <v>12.84087837485967</v>
       </c>
       <c r="D9">
-        <v>3.389891691018993</v>
+        <v>3.391941113438214</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>41.00671145026311</v>
+        <v>40.9664778775938</v>
       </c>
       <c r="G9">
-        <v>30.60188617670167</v>
+        <v>29.7111054734745</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30.64078235179444</v>
       </c>
       <c r="I9">
-        <v>12.96883884529365</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>17.39602576726656</v>
+        <v>12.96690057017938</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.39475293158019</v>
       </c>
       <c r="L9">
-        <v>20.5106808978125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>20.51152709771613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.92630819328593</v>
+        <v>21.92467243236237</v>
       </c>
       <c r="C10">
-        <v>13.99057470400309</v>
+        <v>13.98870277807464</v>
       </c>
       <c r="D10">
-        <v>3.427156089198002</v>
+        <v>3.429914898659945</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.2308745536326</v>
+        <v>44.18680954851241</v>
       </c>
       <c r="G10">
-        <v>32.80049139728364</v>
+        <v>32.20392057301336</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>32.84175560251288</v>
       </c>
       <c r="I10">
-        <v>13.99928412381741</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>18.99720201494998</v>
+        <v>13.99710555228678</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.99545106919444</v>
       </c>
       <c r="L10">
-        <v>22.51335521629695</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>22.51404651568006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.76885085143086</v>
+        <v>22.76699328223573</v>
       </c>
       <c r="C11">
-        <v>14.49420281153401</v>
+        <v>14.49209714977504</v>
       </c>
       <c r="D11">
-        <v>3.443127321445075</v>
+        <v>3.446205441086877</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.68491541012379</v>
+        <v>45.63916140447454</v>
       </c>
       <c r="G11">
-        <v>33.79937336720688</v>
+        <v>33.3234600108121</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>33.84175243678936</v>
       </c>
       <c r="I11">
-        <v>14.47081655949771</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>19.69762723685895</v>
+        <v>14.46903062037268</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.69565063516073</v>
       </c>
       <c r="L11">
-        <v>23.3928772927357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>23.39348250864278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.08313426348905</v>
+        <v>23.08119037816981</v>
       </c>
       <c r="C12">
-        <v>14.68237858056461</v>
+        <v>14.68018321625565</v>
       </c>
       <c r="D12">
-        <v>3.449032257592499</v>
+        <v>3.452230889532018</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.23393447942757</v>
+        <v>46.1875475399213</v>
       </c>
       <c r="G12">
-        <v>34.1775933466361</v>
+        <v>33.74553276664038</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>34.22039960703781</v>
       </c>
       <c r="I12">
-        <v>14.69056633653597</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>19.95905103677102</v>
+        <v>14.68875346244385</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.95698735558875</v>
       </c>
       <c r="L12">
-        <v>23.72173623867558</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>23.72230617177807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.01565541094038</v>
+        <v>23.01373022699029</v>
       </c>
       <c r="C13">
-        <v>14.6419616024882</v>
+        <v>14.63978561786656</v>
       </c>
       <c r="D13">
-        <v>3.447766915629146</v>
+        <v>3.450939609498969</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.11575933933707</v>
+        <v>46.06950843755791</v>
       </c>
       <c r="G13">
-        <v>34.09613510785249</v>
+        <v>33.65471078791274</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>34.13884914786227</v>
       </c>
       <c r="I13">
-        <v>14.64332595090933</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>19.90291465908046</v>
+        <v>14.64151890832685</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.90086981245753</v>
       </c>
       <c r="L13">
-        <v>23.65109145065716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>23.65166910992415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.79480114263012</v>
+        <v>22.79293652167839</v>
       </c>
       <c r="C14">
-        <v>14.50973399455257</v>
+        <v>14.50762097952173</v>
       </c>
       <c r="D14">
-        <v>3.443616001579387</v>
+        <v>3.446704043380262</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.73011374436705</v>
+        <v>45.68430754064953</v>
       </c>
       <c r="G14">
-        <v>33.83048927376016</v>
+        <v>33.358220186054</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>33.87290339018209</v>
       </c>
       <c r="I14">
-        <v>14.48893501140615</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>19.71920983345835</v>
+        <v>14.48714686966619</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.71722610317319</v>
       </c>
       <c r="L14">
-        <v>23.42001476039813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>23.4206171302145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.65890855600266</v>
+        <v>22.65708071389617</v>
       </c>
       <c r="C15">
-        <v>14.42841549085953</v>
+        <v>14.42634087728828</v>
       </c>
       <c r="D15">
-        <v>3.441054763378482</v>
+        <v>3.444090903601349</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.49369591246957</v>
+        <v>45.44816292906609</v>
       </c>
       <c r="G15">
-        <v>33.66777495544422</v>
+        <v>33.17637507366588</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>33.7100060021989</v>
       </c>
       <c r="I15">
-        <v>14.40627337889416</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>19.60619555420772</v>
+        <v>14.40400381608265</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.60424903267334</v>
       </c>
       <c r="L15">
-        <v>23.2779376995801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>23.27855484110908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.87056404253104</v>
+        <v>21.86894247969171</v>
       </c>
       <c r="C16">
-        <v>13.95729714340744</v>
+        <v>13.95544035102114</v>
       </c>
       <c r="D16">
-        <v>3.426092424759225</v>
+        <v>3.428830305084262</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.13561124257063</v>
+        <v>44.09165761387445</v>
       </c>
       <c r="G16">
-        <v>32.73519707098953</v>
+        <v>32.13048055411959</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>32.77638913969778</v>
       </c>
       <c r="I16">
-        <v>13.96865890687984</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>18.95088216213102</v>
+        <v>13.96648724846706</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.94914576194667</v>
       </c>
       <c r="L16">
-        <v>22.45526993285856</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>22.45596650817501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.37816243815442</v>
+        <v>21.37666381060445</v>
       </c>
       <c r="C17">
-        <v>13.66358423092522</v>
+        <v>13.66185942736939</v>
       </c>
       <c r="D17">
-        <v>3.416660895823731</v>
+        <v>3.419214988856526</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.29934945677145</v>
+        <v>43.25637781130791</v>
       </c>
       <c r="G17">
-        <v>32.16284138741093</v>
+        <v>31.48527181248048</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.20340542065397</v>
       </c>
       <c r="I17">
-        <v>13.70028184645998</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>18.54184744645207</v>
+        <v>13.69817126125746</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.54023755559465</v>
       </c>
       <c r="L17">
-        <v>21.94274457129991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>21.94348559079632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.0916396279517</v>
+        <v>21.09021052826019</v>
       </c>
       <c r="C18">
-        <v>13.49287243501233</v>
+        <v>13.49122308300435</v>
       </c>
       <c r="D18">
-        <v>3.411143951339785</v>
+        <v>3.413592009324206</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.81714213558539</v>
+        <v>42.77474045645617</v>
       </c>
       <c r="G18">
-        <v>31.83350331379476</v>
+        <v>31.11278602446443</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>31.87370968097313</v>
       </c>
       <c r="I18">
-        <v>13.54590982684243</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>18.30393592765056</v>
+        <v>13.54383482333046</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.30239806415994</v>
       </c>
       <c r="L18">
-        <v>21.64496583982551</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>21.64573098322705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.99405270893586</v>
+        <v>20.99264696025304</v>
       </c>
       <c r="C19">
-        <v>13.43476288755749</v>
+        <v>13.43313901466577</v>
       </c>
       <c r="D19">
-        <v>3.40926024082707</v>
+        <v>3.411672338977092</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.65366221299085</v>
+        <v>42.61145443009367</v>
       </c>
       <c r="G19">
-        <v>31.72196900226425</v>
+        <v>30.98642724063915</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>31.76205489469197</v>
       </c>
       <c r="I19">
-        <v>13.49363742273254</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>18.2229229009531</v>
+        <v>13.49157455178895</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.22140931081656</v>
       </c>
       <c r="L19">
-        <v>21.54362047992239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>21.544393556062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.4309198698247</v>
+        <v>21.42940828098999</v>
       </c>
       <c r="C20">
-        <v>13.69503319543649</v>
+        <v>13.69329439254005</v>
       </c>
       <c r="D20">
-        <v>3.417674453391407</v>
+        <v>3.420248144023081</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.3884951460137</v>
+        <v>43.34541844044772</v>
       </c>
       <c r="G20">
-        <v>32.22378273332556</v>
+        <v>31.55409690178673</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>32.26441325623098</v>
       </c>
       <c r="I20">
-        <v>13.72885113781221</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>18.58566227686012</v>
+        <v>13.72673400602978</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.58403899827199</v>
       </c>
       <c r="L20">
-        <v>21.99761071042409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>21.9983471506166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.85979863618883</v>
+        <v>22.85791629359116</v>
       </c>
       <c r="C21">
-        <v>14.5486399153929</v>
+        <v>14.54650844080478</v>
       </c>
       <c r="D21">
-        <v>3.444839122685156</v>
+        <v>3.447952039040173</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.8434280399301</v>
+        <v>45.79749104695817</v>
       </c>
       <c r="G21">
-        <v>33.90851520132127</v>
+        <v>33.44535534911967</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>33.95101727938633</v>
       </c>
       <c r="I21">
-        <v>14.53433680527646</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>19.77327004833536</v>
+        <v>14.53254313002895</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.77126841487346</v>
       </c>
       <c r="L21">
-        <v>23.48799861063448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>23.48859379917993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.76599684225984</v>
+        <v>23.76385837297429</v>
       </c>
       <c r="C22">
-        <v>15.09182477656768</v>
+        <v>15.08942947009924</v>
       </c>
       <c r="D22">
-        <v>3.46175832676065</v>
+        <v>3.465221358777455</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.43877417680135</v>
+        <v>47.39100592000618</v>
       </c>
       <c r="G22">
-        <v>35.0095183285765</v>
+        <v>34.67065518209707</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35.05327265721874</v>
       </c>
       <c r="I22">
-        <v>15.17045291352997</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>20.52733917505116</v>
+        <v>15.16857942891482</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.52508050689007</v>
       </c>
       <c r="L22">
-        <v>24.43777872778156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>24.43826567692598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.28477950352969</v>
+        <v>23.28277917601945</v>
       </c>
       <c r="C23">
-        <v>14.80320218968879</v>
+        <v>14.80094851537564</v>
       </c>
       <c r="D23">
-        <v>3.452805214081276</v>
+        <v>3.456081560472329</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.58803113321107</v>
+        <v>46.54123719669771</v>
       </c>
       <c r="G23">
-        <v>34.42182483209446</v>
+        <v>34.0175787624207</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>34.46490827042371</v>
       </c>
       <c r="I23">
-        <v>14.83192588383262</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>20.12682400499387</v>
+        <v>14.83009542007071</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.1247035836507</v>
       </c>
       <c r="L23">
-        <v>23.93296205430842</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>23.93350839976459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.40707895183845</v>
+        <v>21.40557322634606</v>
       </c>
       <c r="C24">
-        <v>13.6808208998621</v>
+        <v>13.67908842737614</v>
       </c>
       <c r="D24">
-        <v>3.417216518619024</v>
+        <v>3.419781350345419</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.34819684702337</v>
+        <v>43.30516762219334</v>
       </c>
       <c r="G24">
-        <v>32.19623204284151</v>
+        <v>31.52298591078577</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>32.23683249515699</v>
       </c>
       <c r="I24">
-        <v>13.71593521498436</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>18.56586217928798</v>
+        <v>13.71382104142774</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.56424495545379</v>
       </c>
       <c r="L24">
-        <v>21.9728154749309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>21.97355398984171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.25445767404044</v>
+        <v>19.2534415490498</v>
       </c>
       <c r="C25">
-        <v>12.4018100469948</v>
+        <v>12.40062331928768</v>
       </c>
       <c r="D25">
-        <v>3.375313394164681</v>
+        <v>3.377098098328645</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.80739205816334</v>
+        <v>39.76862340664746</v>
       </c>
       <c r="G25">
-        <v>29.79060136355866</v>
+        <v>28.77945333358061</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>29.82866172682189</v>
       </c>
       <c r="I25">
-        <v>12.58878929306574</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>16.78034879270162</v>
+        <v>12.58694510869746</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.77924747815003</v>
       </c>
       <c r="L25">
-        <v>19.74325006993295</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>19.7441419445531</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.55094573692708</v>
+        <v>21.23898548515639</v>
       </c>
       <c r="C2">
-        <v>11.39560674681218</v>
+        <v>12.06872219823438</v>
       </c>
       <c r="D2">
-        <v>3.342709661306279</v>
+        <v>2.849837958159691</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.12286152456234</v>
+        <v>41.78601227728578</v>
       </c>
       <c r="G2">
-        <v>26.71094670632923</v>
+        <v>2.135116179204546</v>
       </c>
       <c r="H2">
-        <v>28.04990447386226</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.75432681010393</v>
+        <v>6.554033575852966</v>
       </c>
       <c r="K2">
-        <v>15.37078085656296</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.4954774741252</v>
       </c>
       <c r="M2">
-        <v>17.99281203822441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.0420706540345</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>31.97959689410044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.31991988958346</v>
+        <v>19.97488985233206</v>
       </c>
       <c r="C3">
-        <v>10.67286486926154</v>
+        <v>11.3055955035013</v>
       </c>
       <c r="D3">
-        <v>3.317597863023592</v>
+        <v>2.767456268274515</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.30611182249665</v>
+        <v>40.69219694046576</v>
       </c>
       <c r="G3">
-        <v>25.28007116307411</v>
+        <v>2.145684453825735</v>
       </c>
       <c r="H3">
-        <v>26.84246421675729</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.18827786401622</v>
+        <v>6.594654693599272</v>
       </c>
       <c r="K3">
-        <v>14.35476714809514</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.452721595916556</v>
       </c>
       <c r="M3">
-        <v>16.73288646272308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.59528058360232</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>31.1859284685056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.52487190612982</v>
+        <v>19.17322966793487</v>
       </c>
       <c r="C4">
-        <v>10.2080842773383</v>
+        <v>10.81428575535259</v>
       </c>
       <c r="D4">
-        <v>3.301302770560435</v>
+        <v>2.716855577589746</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.18076171022443</v>
+        <v>40.04158793297429</v>
       </c>
       <c r="G4">
-        <v>24.38841969384995</v>
+        <v>2.152328264730283</v>
       </c>
       <c r="H4">
-        <v>26.10125647714858</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.84021425560138</v>
+        <v>6.620236412859068</v>
       </c>
       <c r="K4">
-        <v>13.69985512413348</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.429307418644273</v>
       </c>
       <c r="M4">
-        <v>15.92195651504577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.32199292958462</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>30.71589986963647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.19087679061746</v>
+        <v>18.84038778217585</v>
       </c>
       <c r="C5">
-        <v>10.01334484436613</v>
+        <v>10.60831310699682</v>
       </c>
       <c r="D5">
-        <v>3.294444380923558</v>
+        <v>2.696213556216728</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.72008074067651</v>
+        <v>39.78178997217793</v>
       </c>
       <c r="G5">
-        <v>24.02205312650047</v>
+        <v>2.155076964326892</v>
       </c>
       <c r="H5">
-        <v>25.79948288585624</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.69834041642221</v>
+        <v>6.630827716406286</v>
       </c>
       <c r="K5">
-        <v>13.4250655440826</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.420468867507887</v>
       </c>
       <c r="M5">
-        <v>15.58193419778439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.21101876988251</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>30.52871008528648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.13480852688174</v>
+        <v>18.78475660342663</v>
       </c>
       <c r="C6">
-        <v>9.980684880456895</v>
+        <v>10.57376275756931</v>
       </c>
       <c r="D6">
-        <v>3.293292454430096</v>
+        <v>2.692784182415603</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.64347186416053</v>
+        <v>39.73897417401658</v>
       </c>
       <c r="G6">
-        <v>23.961046172418</v>
+        <v>2.155535943423555</v>
       </c>
       <c r="H6">
-        <v>25.74939794795106</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.67478353829161</v>
+        <v>6.632596609502543</v>
       </c>
       <c r="K6">
-        <v>13.37895690771484</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.419043370978426</v>
       </c>
       <c r="M6">
-        <v>15.52489142683745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.19261937798398</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>30.49789023104083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.52040824141882</v>
+        <v>19.16876539071973</v>
       </c>
       <c r="C7">
-        <v>10.2054796240512</v>
+        <v>10.81153129951589</v>
       </c>
       <c r="D7">
-        <v>3.301211155437061</v>
+        <v>2.716577301701478</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.17455669246812</v>
+        <v>40.03806255541606</v>
       </c>
       <c r="G7">
-        <v>24.38349050769282</v>
+        <v>2.152365164470416</v>
       </c>
       <c r="H7">
-        <v>26.09718519732686</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.83830089315772</v>
+        <v>6.620378569430151</v>
       </c>
       <c r="K7">
-        <v>13.69618134600333</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.429185387025312</v>
       </c>
       <c r="M7">
-        <v>15.91740979060104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.3204945210575</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>30.71335774210973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.13452862867764</v>
+        <v>20.80854629230157</v>
       </c>
       <c r="C8">
-        <v>11.1507297511014</v>
+        <v>11.81028820284227</v>
       </c>
       <c r="D8">
-        <v>3.334234380233291</v>
+        <v>2.821425319402715</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.49869406848983</v>
+        <v>41.40453482178575</v>
       </c>
       <c r="G8">
-        <v>26.22043861281898</v>
+        <v>2.138729455499454</v>
       </c>
       <c r="H8">
-        <v>27.63366829388839</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.55930403323537</v>
+        <v>6.567910329841219</v>
       </c>
       <c r="K8">
-        <v>15.02684798373828</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.480139722372545</v>
       </c>
       <c r="M8">
-        <v>17.56602749929432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.88787486217597</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>31.70235345211304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.99617797197977</v>
+        <v>23.81451033361874</v>
       </c>
       <c r="C9">
-        <v>12.84087837485967</v>
+        <v>13.59099746758266</v>
       </c>
       <c r="D9">
-        <v>3.391941113438214</v>
+        <v>3.027812709704251</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.9664778775938</v>
+        <v>44.24929450646161</v>
       </c>
       <c r="G9">
-        <v>29.7111054734745</v>
+        <v>2.113102080207655</v>
       </c>
       <c r="H9">
-        <v>30.64078235179444</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.96690057017938</v>
+        <v>6.469828013076468</v>
       </c>
       <c r="K9">
-        <v>17.39475293158019</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.603075221901178</v>
       </c>
       <c r="M9">
-        <v>20.51152709771613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.00385616879468</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>33.77920788847199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.92467243236237</v>
+        <v>25.96248098353445</v>
       </c>
       <c r="C10">
-        <v>13.98870277807464</v>
+        <v>14.79565899926447</v>
       </c>
       <c r="D10">
-        <v>3.429914898659945</v>
+        <v>3.181460406380686</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.18680954851241</v>
+        <v>46.44000410989283</v>
       </c>
       <c r="G10">
-        <v>32.20392057301336</v>
+        <v>2.094771977159441</v>
       </c>
       <c r="H10">
-        <v>32.84175560251288</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.99710555228678</v>
+        <v>6.400285434744863</v>
       </c>
       <c r="K10">
-        <v>18.99545106919444</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.708152627583036</v>
       </c>
       <c r="M10">
-        <v>22.51404651568006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.8205743487488</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35.39058850655744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.76699328223573</v>
+        <v>26.95353876160431</v>
       </c>
       <c r="C11">
-        <v>14.49209714977504</v>
+        <v>15.3225551687458</v>
       </c>
       <c r="D11">
-        <v>3.446205441086877</v>
+        <v>3.252220503890681</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.63916140447454</v>
+        <v>47.45926051239382</v>
       </c>
       <c r="G11">
-        <v>33.3234600108121</v>
+        <v>2.086495834965688</v>
       </c>
       <c r="H11">
-        <v>33.84175243678936</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14.46903062037268</v>
+        <v>6.369094347114711</v>
       </c>
       <c r="K11">
-        <v>19.69565063516073</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.75933494733435</v>
       </c>
       <c r="M11">
-        <v>23.39348250864278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.19074913959223</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>36.14313017328464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.08119037816981</v>
+        <v>27.32336336194617</v>
       </c>
       <c r="C12">
-        <v>14.68018321625565</v>
+        <v>15.51917662404806</v>
       </c>
       <c r="D12">
-        <v>3.452230889532018</v>
+        <v>3.279182505826564</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.1875475399213</v>
+        <v>47.84862128818378</v>
       </c>
       <c r="G12">
-        <v>33.74553276664038</v>
+        <v>2.083366525745699</v>
       </c>
       <c r="H12">
-        <v>34.22039960703781</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>14.68875346244385</v>
+        <v>6.357337710484323</v>
       </c>
       <c r="K12">
-        <v>19.95698735558875</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.779218947297699</v>
       </c>
       <c r="M12">
-        <v>23.72230617177807</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.33070396592426</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>36.43102783282077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.01373022699029</v>
+        <v>27.24395459496646</v>
       </c>
       <c r="C13">
-        <v>14.63978561786656</v>
+        <v>15.47695744150223</v>
       </c>
       <c r="D13">
-        <v>3.450939609498969</v>
+        <v>3.273367593004282</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.06950843755791</v>
+        <v>47.76461193375325</v>
       </c>
       <c r="G13">
-        <v>33.65471078791274</v>
+        <v>2.084040343769582</v>
       </c>
       <c r="H13">
-        <v>34.13884914786227</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>14.64151890832685</v>
+        <v>6.359867432325231</v>
       </c>
       <c r="K13">
-        <v>19.90086981245753</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.774913950602783</v>
       </c>
       <c r="M13">
-        <v>23.65166910992415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.30057224625501</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>36.36889132539799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.79293652167839</v>
+        <v>26.98407275009868</v>
       </c>
       <c r="C14">
-        <v>14.50762097952173</v>
+        <v>15.33878867553076</v>
       </c>
       <c r="D14">
-        <v>3.446704043380262</v>
+        <v>3.254435075786388</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.68430754064953</v>
+        <v>47.49122453791024</v>
       </c>
       <c r="G14">
-        <v>33.358220186054</v>
+        <v>2.086238317249113</v>
       </c>
       <c r="H14">
-        <v>33.87290339018209</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14.48714686966619</v>
+        <v>6.368126079683796</v>
       </c>
       <c r="K14">
-        <v>19.71722610317319</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.760960648268393</v>
       </c>
       <c r="M14">
-        <v>23.4206171302145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.2022678309631</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>36.16675617377628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.65708071389617</v>
+        <v>26.82418216953903</v>
       </c>
       <c r="C15">
-        <v>14.42634087728828</v>
+        <v>15.25378258741288</v>
       </c>
       <c r="D15">
-        <v>3.444090903601349</v>
+        <v>3.24286144573474</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.44816292906609</v>
+        <v>47.32421332779786</v>
       </c>
       <c r="G15">
-        <v>33.17637507366588</v>
+        <v>2.08758511398467</v>
       </c>
       <c r="H15">
-        <v>33.7100060021989</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14.40400381608265</v>
+        <v>6.373191583968153</v>
       </c>
       <c r="K15">
-        <v>19.60424903267334</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.752479782953301</v>
       </c>
       <c r="M15">
-        <v>23.27855484110908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.14202419719458</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>36.04332806332742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.86894247969171</v>
+        <v>25.89693619264409</v>
       </c>
       <c r="C16">
-        <v>13.95544035102114</v>
+        <v>14.76081121897595</v>
       </c>
       <c r="D16">
-        <v>3.428830305084262</v>
+        <v>3.176856933118232</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.09165761387445</v>
+        <v>46.37385933606536</v>
       </c>
       <c r="G16">
-        <v>32.13048055411959</v>
+        <v>2.095313742654174</v>
       </c>
       <c r="H16">
-        <v>32.77638913969778</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.96648724846706</v>
+        <v>6.402332023924524</v>
       </c>
       <c r="K16">
-        <v>18.94914576194667</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.704877121652237</v>
       </c>
       <c r="M16">
-        <v>22.45596650817501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.79635237346097</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>35.34181003862314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.37666381060445</v>
+        <v>25.3181369486937</v>
       </c>
       <c r="C17">
-        <v>13.66185942736939</v>
+        <v>14.45307085131775</v>
       </c>
       <c r="D17">
-        <v>3.419214988856526</v>
+        <v>3.136614817333025</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.25637781130791</v>
+        <v>45.79673040677803</v>
       </c>
       <c r="G17">
-        <v>31.48527181248048</v>
+        <v>2.100068082773132</v>
       </c>
       <c r="H17">
-        <v>32.20340542065397</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.69817126125746</v>
+        <v>6.420316287073906</v>
       </c>
       <c r="K17">
-        <v>18.54023755559465</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.676551433437822</v>
       </c>
       <c r="M17">
-        <v>21.94348559079632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.5839195262181</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.916520841145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.09021052826019</v>
+        <v>24.98818555595443</v>
       </c>
       <c r="C18">
-        <v>13.49122308300435</v>
+        <v>14.27407062118554</v>
       </c>
       <c r="D18">
-        <v>3.413592009324206</v>
+        <v>3.11354711813064</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.77474045645617</v>
+        <v>45.46690572927172</v>
       </c>
       <c r="G18">
-        <v>31.11278602446443</v>
+        <v>2.10280880294012</v>
       </c>
       <c r="H18">
-        <v>31.87370968097313</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>13.54383482333046</v>
+        <v>6.430702763288737</v>
       </c>
       <c r="K18">
-        <v>18.30239806415994</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.660576518529253</v>
       </c>
       <c r="M18">
-        <v>21.64573098322705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.46160642495027</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34.67373295682398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.99264696025304</v>
+        <v>24.88308126232244</v>
       </c>
       <c r="C19">
-        <v>13.43313901466577</v>
+        <v>14.21311765106059</v>
       </c>
       <c r="D19">
-        <v>3.411672338977092</v>
+        <v>3.105749095891942</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.61145443009367</v>
+        <v>45.35559482856875</v>
       </c>
       <c r="G19">
-        <v>30.98642724063915</v>
+        <v>2.10373794190342</v>
       </c>
       <c r="H19">
-        <v>31.76205489469197</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13.49157455178895</v>
+        <v>6.434226992359658</v>
       </c>
       <c r="K19">
-        <v>18.22140931081656</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.655221723257074</v>
       </c>
       <c r="M19">
-        <v>21.544393556062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.42017268601732</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>34.59184008349216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.42940828098999</v>
+        <v>25.38013519177322</v>
       </c>
       <c r="C20">
-        <v>13.69329439254005</v>
+        <v>14.4860360278147</v>
       </c>
       <c r="D20">
-        <v>3.420248144023081</v>
+        <v>3.140890250126655</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.34541844044772</v>
+        <v>45.85794616087878</v>
       </c>
       <c r="G20">
-        <v>31.55409690178673</v>
+        <v>2.099561368040943</v>
       </c>
       <c r="H20">
-        <v>32.26441325623098</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13.72673400602978</v>
+        <v>6.418397506223685</v>
       </c>
       <c r="K20">
-        <v>18.58403899827199</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.679533805410623</v>
       </c>
       <c r="M20">
-        <v>21.9983471506166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.60654682470042</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>34.96160377499733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.85791629359116</v>
+        <v>27.06055295144336</v>
       </c>
       <c r="C21">
-        <v>14.54650844080478</v>
+        <v>15.379449810409</v>
       </c>
       <c r="D21">
-        <v>3.447952039040173</v>
+        <v>3.259991118819106</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.79749104695817</v>
+        <v>47.57143167666129</v>
       </c>
       <c r="G21">
-        <v>33.44535534911967</v>
+        <v>2.085592628651553</v>
       </c>
       <c r="H21">
-        <v>33.95101727938633</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14.53254313002895</v>
+        <v>6.365698905971819</v>
       </c>
       <c r="K21">
-        <v>19.77126841487346</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.765045298801454</v>
       </c>
       <c r="M21">
-        <v>23.48859379917993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.2311483486129</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>36.22604754360625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.76385837297429</v>
+        <v>28.12705487625973</v>
       </c>
       <c r="C22">
-        <v>15.08942947009924</v>
+        <v>15.94650476607548</v>
       </c>
       <c r="D22">
-        <v>3.465221358777455</v>
+        <v>3.338826961701057</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.39100592000618</v>
+        <v>48.71116563636602</v>
       </c>
       <c r="G22">
-        <v>34.67065518209707</v>
+        <v>2.076488186618567</v>
       </c>
       <c r="H22">
-        <v>35.05327265721874</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>15.16857942891482</v>
+        <v>6.331571556961137</v>
       </c>
       <c r="K22">
-        <v>20.52508050689007</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.823869297788107</v>
       </c>
       <c r="M22">
-        <v>24.43826567692598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.63807123169358</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>37.06958521705458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.28277917601945</v>
+        <v>27.56067163462495</v>
       </c>
       <c r="C23">
-        <v>14.80094851537564</v>
+        <v>15.64534870273936</v>
       </c>
       <c r="D23">
-        <v>3.456081560472329</v>
+        <v>3.296643723385897</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.54123719669771</v>
+        <v>48.100989683309</v>
       </c>
       <c r="G23">
-        <v>34.0175787624207</v>
+        <v>2.081346670531182</v>
       </c>
       <c r="H23">
-        <v>34.46490827042371</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>14.83009542007071</v>
+        <v>6.3497604663998</v>
       </c>
       <c r="K23">
-        <v>20.1247035836507</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.792199168821068</v>
       </c>
       <c r="M23">
-        <v>23.93350839976459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.42100933571206</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>36.61775107464659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.40557322634606</v>
+        <v>25.35211786881755</v>
       </c>
       <c r="C24">
-        <v>13.67908842737614</v>
+        <v>14.47113894818543</v>
       </c>
       <c r="D24">
-        <v>3.419781350345419</v>
+        <v>3.138957118162756</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.30516762219334</v>
+        <v>45.83026437724966</v>
       </c>
       <c r="G24">
-        <v>31.52298591078577</v>
+        <v>2.099790430447179</v>
       </c>
       <c r="H24">
-        <v>32.23683249515699</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>13.71382104142774</v>
+        <v>6.419264839712548</v>
       </c>
       <c r="K24">
-        <v>18.56424495545379</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.678184510952008</v>
       </c>
       <c r="M24">
-        <v>21.97355398984171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.59631758948075</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34.94121644235727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.2534415490498</v>
+        <v>23.02450374766897</v>
       </c>
       <c r="C25">
-        <v>12.40062331928768</v>
+        <v>13.1278718609064</v>
       </c>
       <c r="D25">
-        <v>3.377098098328645</v>
+        <v>2.971751863600141</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.76862340664746</v>
+        <v>43.46214503773679</v>
       </c>
       <c r="G25">
-        <v>28.77945333358061</v>
+        <v>2.119933342757328</v>
       </c>
       <c r="H25">
-        <v>29.82866172682189</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.58694510869746</v>
+        <v>6.495887709233368</v>
       </c>
       <c r="K25">
-        <v>16.77924747815003</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.567281467759771</v>
       </c>
       <c r="M25">
-        <v>19.7441419445531</v>
+        <v>13.70220966197743</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>33.20254566396069</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.23898548515639</v>
+        <v>13.5376133847652</v>
       </c>
       <c r="C2">
-        <v>12.06872219823438</v>
+        <v>7.109674888578703</v>
       </c>
       <c r="D2">
-        <v>2.849837958159691</v>
+        <v>5.449338181178427</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.78601227728578</v>
+        <v>25.4758345923723</v>
       </c>
       <c r="G2">
-        <v>2.135116179204546</v>
+        <v>2.12461698913796</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.554033575852966</v>
+        <v>6.455735117667579</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.34896368667953</v>
       </c>
       <c r="L2">
-        <v>6.4954774741252</v>
+        <v>6.745758919827765</v>
       </c>
       <c r="M2">
-        <v>13.0420706540345</v>
+        <v>10.42082419593226</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>14.24805829512585</v>
       </c>
       <c r="O2">
-        <v>31.97959689410044</v>
+        <v>18.98247263886544</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.97488985233206</v>
+        <v>12.77507328120995</v>
       </c>
       <c r="C3">
-        <v>11.3055955035013</v>
+        <v>7.065209110422463</v>
       </c>
       <c r="D3">
-        <v>2.767456268274515</v>
+        <v>5.31162517161816</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40.69219694046576</v>
+        <v>25.35842257115314</v>
       </c>
       <c r="G3">
-        <v>2.145684453825735</v>
+        <v>2.129183864861032</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.594654693599272</v>
+        <v>6.503317505777044</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.709102514008018</v>
       </c>
       <c r="L3">
-        <v>6.452721595916556</v>
+        <v>6.67584046089084</v>
       </c>
       <c r="M3">
-        <v>12.59528058360232</v>
+        <v>10.14124831799026</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.44684872361147</v>
       </c>
       <c r="O3">
-        <v>31.1859284685056</v>
+        <v>19.01193870059245</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.17322966793487</v>
+        <v>12.28738924304926</v>
       </c>
       <c r="C4">
-        <v>10.81428575535259</v>
+        <v>7.038069856488849</v>
       </c>
       <c r="D4">
-        <v>2.716855577589746</v>
+        <v>5.227166112988898</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40.04158793297429</v>
+        <v>25.30263416139549</v>
       </c>
       <c r="G4">
-        <v>2.152328264730283</v>
+        <v>2.132081872482841</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.620236412859068</v>
+        <v>6.53375691752212</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.294222341145458</v>
       </c>
       <c r="L4">
-        <v>6.429307418644273</v>
+        <v>6.634835508921764</v>
       </c>
       <c r="M4">
-        <v>12.32199292958462</v>
+        <v>9.969401564743858</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>14.57181517681304</v>
       </c>
       <c r="O4">
-        <v>30.71589986963647</v>
+        <v>19.04180241759353</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.84038778217585</v>
+        <v>12.08394348836871</v>
       </c>
       <c r="C5">
-        <v>10.60831310699682</v>
+        <v>7.027052218726832</v>
       </c>
       <c r="D5">
-        <v>2.696213556216728</v>
+        <v>5.192820367353901</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.78178997217793</v>
+        <v>25.28390681507705</v>
       </c>
       <c r="G5">
-        <v>2.155076964326892</v>
+        <v>2.133286880713471</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.630827716406286</v>
+        <v>6.546470425268179</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.119632809284397</v>
       </c>
       <c r="L5">
-        <v>6.420468867507887</v>
+        <v>6.618618699682542</v>
       </c>
       <c r="M5">
-        <v>12.21101876988251</v>
+        <v>9.899422888304267</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.62349041473377</v>
       </c>
       <c r="O5">
-        <v>30.52871008528648</v>
+        <v>19.05683983472785</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.78475660342663</v>
+        <v>12.04988326393977</v>
       </c>
       <c r="C6">
-        <v>10.57376275756931</v>
+        <v>7.025225301358049</v>
       </c>
       <c r="D6">
-        <v>2.692784182415603</v>
+        <v>5.187123051794124</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.73897417401658</v>
+        <v>25.28103634329915</v>
       </c>
       <c r="G6">
-        <v>2.155535943423555</v>
+        <v>2.13348843598936</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.632596609502543</v>
+        <v>6.548600212994085</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.090309292691167</v>
       </c>
       <c r="L6">
-        <v>6.419043370978426</v>
+        <v>6.615955932357613</v>
       </c>
       <c r="M6">
-        <v>12.19261937798398</v>
+        <v>9.887808935078667</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.63211691440563</v>
       </c>
       <c r="O6">
-        <v>30.49789023104083</v>
+        <v>19.05950730124071</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.16876539071973</v>
+        <v>12.28466429718846</v>
       </c>
       <c r="C7">
-        <v>10.81153129951589</v>
+        <v>7.037921098216642</v>
       </c>
       <c r="D7">
-        <v>2.716577301701478</v>
+        <v>5.226702558692519</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40.03806255541606</v>
+        <v>25.30236550055317</v>
       </c>
       <c r="G7">
-        <v>2.152365164470416</v>
+        <v>2.132098025725853</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.620378569430151</v>
+        <v>6.533927122371666</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.291890105708431</v>
       </c>
       <c r="L7">
-        <v>6.429185387025312</v>
+        <v>6.63461479592018</v>
       </c>
       <c r="M7">
-        <v>12.3204945210575</v>
+        <v>9.968457472992606</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14.57250902411053</v>
       </c>
       <c r="O7">
-        <v>30.71335774210973</v>
+        <v>19.04199372771799</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.80854629230157</v>
+        <v>13.27883385147287</v>
       </c>
       <c r="C8">
-        <v>11.81028820284227</v>
+        <v>7.094309753855561</v>
       </c>
       <c r="D8">
-        <v>2.821425319402715</v>
+        <v>5.401862524853018</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>41.40453482178575</v>
+        <v>25.43191321268785</v>
       </c>
       <c r="G8">
-        <v>2.138729455499454</v>
+        <v>2.12617241608244</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.567910329841219</v>
+        <v>6.471888466699122</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.13290958087461</v>
       </c>
       <c r="L8">
-        <v>6.480139722372545</v>
+        <v>6.721257048903395</v>
       </c>
       <c r="M8">
-        <v>12.88787486217597</v>
+        <v>10.32452189123461</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>14.31600935113315</v>
       </c>
       <c r="O8">
-        <v>31.70235345211304</v>
+        <v>18.99013368026181</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.81451033361874</v>
+        <v>15.06741946548598</v>
       </c>
       <c r="C9">
-        <v>13.59099746758266</v>
+        <v>7.206153514046634</v>
       </c>
       <c r="D9">
-        <v>3.027812709704251</v>
+        <v>5.744134738415871</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.24929450646161</v>
+        <v>25.8191729532265</v>
       </c>
       <c r="G9">
-        <v>2.113102080207655</v>
+        <v>2.115277317778983</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.469828013076468</v>
+        <v>6.359871264183211</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.60756435473249</v>
       </c>
       <c r="L9">
-        <v>6.603075221901178</v>
+        <v>6.906012591244924</v>
       </c>
       <c r="M9">
-        <v>14.00385616879468</v>
+        <v>11.01727398175985</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.83518164958349</v>
       </c>
       <c r="O9">
-        <v>33.77920788847199</v>
+        <v>18.98599087600063</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.96248098353445</v>
+        <v>16.27697237056316</v>
       </c>
       <c r="C10">
-        <v>14.79565899926447</v>
+        <v>7.289080770762703</v>
       </c>
       <c r="D10">
-        <v>3.181460406380686</v>
+        <v>5.992376133342927</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.44000410989283</v>
+        <v>26.18977651806808</v>
       </c>
       <c r="G10">
-        <v>2.094771977159441</v>
+        <v>2.107685029009049</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.400285434744863</v>
+        <v>6.283354089293549</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.5850933791344</v>
       </c>
       <c r="L10">
-        <v>6.708152627583036</v>
+        <v>7.050201248132715</v>
       </c>
       <c r="M10">
-        <v>14.8205743487488</v>
+        <v>11.51793988267794</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>13.4940952572333</v>
       </c>
       <c r="O10">
-        <v>35.39058850655744</v>
+        <v>19.04812719493123</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.95353876160431</v>
+        <v>16.80369736496529</v>
       </c>
       <c r="C11">
-        <v>15.3225551687458</v>
+        <v>7.326972159593328</v>
       </c>
       <c r="D11">
-        <v>3.252220503890681</v>
+        <v>6.104139126711402</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.45926051239382</v>
+        <v>26.37798596213841</v>
       </c>
       <c r="G11">
-        <v>2.086495834965688</v>
+        <v>2.104313756962474</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.369094347114711</v>
+        <v>6.249780147858521</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.00702942095359</v>
       </c>
       <c r="L11">
-        <v>6.75933494733435</v>
+        <v>7.117495067030319</v>
       </c>
       <c r="M11">
-        <v>15.19074913959223</v>
+        <v>11.74298885823822</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>13.34125952567146</v>
       </c>
       <c r="O11">
-        <v>36.14313017328464</v>
+        <v>19.09177229916879</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.32336336194617</v>
+        <v>16.99973012417322</v>
       </c>
       <c r="C12">
-        <v>15.51917662404806</v>
+        <v>7.341345023467825</v>
       </c>
       <c r="D12">
-        <v>3.279182505826564</v>
+        <v>6.146258828736139</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>47.84862128818378</v>
+        <v>26.4521438814254</v>
       </c>
       <c r="G12">
-        <v>2.083366525745699</v>
+        <v>2.10304841355742</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.357337710484323</v>
+        <v>6.237242587754259</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.16355802384541</v>
       </c>
       <c r="L12">
-        <v>6.779218947297699</v>
+        <v>7.143210431234157</v>
       </c>
       <c r="M12">
-        <v>15.33070396592426</v>
+        <v>11.82775308272637</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>13.28369231741469</v>
       </c>
       <c r="O12">
-        <v>36.43102783282077</v>
+        <v>19.11061106051269</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.24395459496646</v>
+        <v>16.95766392238407</v>
       </c>
       <c r="C13">
-        <v>15.47695744150223</v>
+        <v>7.338248486911746</v>
       </c>
       <c r="D13">
-        <v>3.273367593004282</v>
+        <v>6.137197129576152</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>47.76461193375325</v>
+        <v>26.43604324996967</v>
       </c>
       <c r="G13">
-        <v>2.084040343769582</v>
+        <v>2.103320435602296</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.359867432325231</v>
+        <v>6.239934960871991</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.12999092500105</v>
       </c>
       <c r="L13">
-        <v>6.774913950602783</v>
+        <v>7.1376620102526</v>
       </c>
       <c r="M13">
-        <v>15.30057224625501</v>
+        <v>11.80951891296641</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>13.29607716298486</v>
       </c>
       <c r="O13">
-        <v>36.36889132539799</v>
+        <v>19.10644941500871</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.98407275009868</v>
+        <v>16.81989397820996</v>
       </c>
       <c r="C14">
-        <v>15.33878867553076</v>
+        <v>7.328154136318885</v>
       </c>
       <c r="D14">
-        <v>3.254435075786388</v>
+        <v>6.107608588583352</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>47.49122453791024</v>
+        <v>26.38402875884544</v>
       </c>
       <c r="G14">
-        <v>2.086238317249113</v>
+        <v>2.104209433680285</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.368126079683796</v>
+        <v>6.248745151926505</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.01997210997081</v>
       </c>
       <c r="L14">
-        <v>6.760960648268393</v>
+        <v>7.119606091251605</v>
       </c>
       <c r="M14">
-        <v>15.2022678309631</v>
+        <v>11.74997198153422</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>13.33651741162279</v>
       </c>
       <c r="O14">
-        <v>36.16675617377628</v>
+        <v>19.09327528299713</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.82418216953903</v>
+        <v>16.73505857782533</v>
       </c>
       <c r="C15">
-        <v>15.25378258741288</v>
+        <v>7.321974219196716</v>
       </c>
       <c r="D15">
-        <v>3.24286144573474</v>
+        <v>6.089457390609236</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>47.32421332779786</v>
+        <v>26.3525462287836</v>
       </c>
       <c r="G15">
-        <v>2.08758511398467</v>
+        <v>2.104755422466533</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.373191583968153</v>
+        <v>6.254164552306563</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.95215994151152</v>
       </c>
       <c r="L15">
-        <v>6.752479782953301</v>
+        <v>7.108576262893152</v>
       </c>
       <c r="M15">
-        <v>15.14202419719458</v>
+        <v>11.71343637506506</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>13.36132758934566</v>
       </c>
       <c r="O15">
-        <v>36.04332806332742</v>
+        <v>19.0855097032005</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.89693619264409</v>
+        <v>16.24207229201451</v>
       </c>
       <c r="C16">
-        <v>14.76081121897595</v>
+        <v>7.286607852431745</v>
       </c>
       <c r="D16">
-        <v>3.176856933118232</v>
+        <v>5.98504566180092</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.37385933606536</v>
+        <v>26.17787713327803</v>
       </c>
       <c r="G16">
-        <v>2.095313742654174</v>
+        <v>2.107906960876198</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.402332023924524</v>
+        <v>6.285572946330678</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.55706289824933</v>
       </c>
       <c r="L16">
-        <v>6.704877121652237</v>
+        <v>7.045836649019717</v>
       </c>
       <c r="M16">
-        <v>14.79635237346097</v>
+        <v>11.50317198196949</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>13.50412803931843</v>
       </c>
       <c r="O16">
-        <v>35.34181003862314</v>
+        <v>19.04559289159337</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.3181369486937</v>
+        <v>15.93358212599682</v>
       </c>
       <c r="C17">
-        <v>14.45307085131775</v>
+        <v>7.264954601172496</v>
       </c>
       <c r="D17">
-        <v>3.136614817333025</v>
+        <v>5.920668371296324</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.79673040677803</v>
+        <v>26.07579692029153</v>
       </c>
       <c r="G17">
-        <v>2.100068082773132</v>
+        <v>2.109861055420618</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.420316287073906</v>
+        <v>6.305156121057727</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.30887177549289</v>
       </c>
       <c r="L17">
-        <v>6.676551433437822</v>
+        <v>7.007775173545887</v>
       </c>
       <c r="M17">
-        <v>14.5839195262181</v>
+        <v>11.37343785658076</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>13.59230913861223</v>
       </c>
       <c r="O17">
-        <v>34.916520841145</v>
+        <v>19.02511529259059</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.98818555595443</v>
+        <v>15.75393577838113</v>
       </c>
       <c r="C18">
-        <v>14.27407062118554</v>
+        <v>7.252515948899434</v>
       </c>
       <c r="D18">
-        <v>3.11354711813064</v>
+        <v>5.883532662608366</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.46690572927172</v>
+        <v>26.01892623260114</v>
       </c>
       <c r="G18">
-        <v>2.10280880294012</v>
+        <v>2.110992800547177</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.430702763288737</v>
+        <v>6.316536079710033</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.16397622380389</v>
       </c>
       <c r="L18">
-        <v>6.660576518529253</v>
+        <v>6.98604411074503</v>
       </c>
       <c r="M18">
-        <v>14.46160642495027</v>
+        <v>11.29856706268282</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>13.64324917441954</v>
       </c>
       <c r="O18">
-        <v>34.67373295682398</v>
+        <v>19.01477871166215</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.88308126232244</v>
+        <v>15.69273256757625</v>
       </c>
       <c r="C19">
-        <v>14.21311765106059</v>
+        <v>7.248307136579789</v>
       </c>
       <c r="D19">
-        <v>3.105749095891942</v>
+        <v>5.870941799122543</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.35559482856875</v>
+        <v>25.99998526809115</v>
       </c>
       <c r="G19">
-        <v>2.10373794190342</v>
+        <v>2.111377347061146</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.434226992359658</v>
+        <v>6.320409142034232</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.11454849464114</v>
       </c>
       <c r="L19">
-        <v>6.655221723257074</v>
+        <v>6.978714347922637</v>
       </c>
       <c r="M19">
-        <v>14.42017268601732</v>
+        <v>11.27317614712889</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>13.66053525630871</v>
       </c>
       <c r="O19">
-        <v>34.59184008349216</v>
+        <v>19.01152346984421</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.38013519177322</v>
+        <v>15.96665064593727</v>
       </c>
       <c r="C20">
-        <v>14.4860360278147</v>
+        <v>7.267257999217416</v>
       </c>
       <c r="D20">
-        <v>3.140890250126655</v>
+        <v>5.927532845302455</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.85794616087878</v>
+        <v>26.08647228130628</v>
       </c>
       <c r="G20">
-        <v>2.099561368040943</v>
+        <v>2.109652235373813</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.418397506223685</v>
+        <v>6.303059438438016</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.33551374907628</v>
       </c>
       <c r="L20">
-        <v>6.679533805410623</v>
+        <v>7.011810318553878</v>
       </c>
       <c r="M20">
-        <v>14.60654682470042</v>
+        <v>11.38727478366456</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>13.5828994635227</v>
       </c>
       <c r="O20">
-        <v>34.96160377499733</v>
+        <v>19.02714524427593</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.06055295144336</v>
+        <v>16.86045363376586</v>
       </c>
       <c r="C21">
-        <v>15.379449810409</v>
+        <v>7.331118431623286</v>
       </c>
       <c r="D21">
-        <v>3.259991118819106</v>
+        <v>6.116305220732293</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>47.57143167666129</v>
+        <v>26.39922782241464</v>
       </c>
       <c r="G21">
-        <v>2.085592628651553</v>
+        <v>2.103948011922096</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.365698905971819</v>
+        <v>6.246152614329606</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.05237530108493</v>
       </c>
       <c r="L21">
-        <v>6.765045298801454</v>
+        <v>7.12490333344057</v>
       </c>
       <c r="M21">
-        <v>15.2311483486129</v>
+        <v>11.76747526322306</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>13.32463097693699</v>
       </c>
       <c r="O21">
-        <v>36.22604754360625</v>
+        <v>19.09708132313778</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.12705487625973</v>
+        <v>17.42462259628054</v>
       </c>
       <c r="C22">
-        <v>15.94650476607548</v>
+        <v>7.372996398790693</v>
       </c>
       <c r="D22">
-        <v>3.338826961701057</v>
+        <v>6.238484497287657</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.71116563636602</v>
+        <v>26.62048682506045</v>
       </c>
       <c r="G22">
-        <v>2.076488186618567</v>
+        <v>2.100285452345694</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.331571556961137</v>
+        <v>6.209986964786467</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.50195819855797</v>
       </c>
       <c r="L22">
-        <v>6.823869297788107</v>
+        <v>7.200166802712666</v>
       </c>
       <c r="M22">
-        <v>15.63807123169358</v>
+        <v>12.01326867214124</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>13.15762178323963</v>
       </c>
       <c r="O22">
-        <v>37.06958521705458</v>
+        <v>19.15630666565966</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.56067163462495</v>
+        <v>17.12535458762392</v>
       </c>
       <c r="C23">
-        <v>15.64534870273936</v>
+        <v>7.350632252220334</v>
       </c>
       <c r="D23">
-        <v>3.296643723385897</v>
+        <v>6.173395172655048</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>48.100989683309</v>
+        <v>26.50083405193229</v>
       </c>
       <c r="G23">
-        <v>2.081346670531182</v>
+        <v>2.102234437774225</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.3497604663998</v>
+        <v>6.229195765471709</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.26373116036536</v>
       </c>
       <c r="L23">
-        <v>6.792199168821068</v>
+        <v>7.159877622422653</v>
       </c>
       <c r="M23">
-        <v>15.42100933571206</v>
+        <v>11.88235067149312</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>13.24660350306745</v>
       </c>
       <c r="O23">
-        <v>36.61775107464659</v>
+        <v>19.1234272102555</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.35211786881755</v>
+        <v>15.95170750108854</v>
       </c>
       <c r="C24">
-        <v>14.47113894818543</v>
+        <v>7.266216601538805</v>
       </c>
       <c r="D24">
-        <v>3.138957118162756</v>
+        <v>5.924429801204559</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.83026437724966</v>
+        <v>26.08164029736614</v>
       </c>
       <c r="G24">
-        <v>2.099790430447179</v>
+        <v>2.109746616989546</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.419264839712548</v>
+        <v>6.304006970633397</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.3234757892479</v>
       </c>
       <c r="L24">
-        <v>6.678184510952008</v>
+        <v>7.009985558290446</v>
       </c>
       <c r="M24">
-        <v>14.59631758948075</v>
+        <v>11.38101999115784</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13.58715281707638</v>
       </c>
       <c r="O24">
-        <v>34.94121644235727</v>
+        <v>19.02622303704502</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.02450374766897</v>
+        <v>14.60155743969464</v>
       </c>
       <c r="C25">
-        <v>13.1278718609064</v>
+        <v>7.175763636898489</v>
       </c>
       <c r="D25">
-        <v>2.971751863600141</v>
+        <v>5.651938304368602</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.46214503773679</v>
+        <v>25.69962076503901</v>
       </c>
       <c r="G25">
-        <v>2.119933342757328</v>
+        <v>2.118150089905255</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.495887709233368</v>
+        <v>6.389152773168755</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.22728919760081</v>
       </c>
       <c r="L25">
-        <v>6.567281467759771</v>
+        <v>6.854501991343549</v>
       </c>
       <c r="M25">
-        <v>13.70220966197743</v>
+        <v>10.83098962637342</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.96301912402321</v>
       </c>
       <c r="O25">
-        <v>33.20254566396069</v>
+        <v>18.97607891057248</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.5376133847652</v>
+        <v>14.83803220311825</v>
       </c>
       <c r="C2">
-        <v>7.109674888578703</v>
+        <v>9.178809736610043</v>
       </c>
       <c r="D2">
-        <v>5.449338181178427</v>
+        <v>8.461251432989892</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.4758345923723</v>
+        <v>38.84545948736759</v>
       </c>
       <c r="G2">
-        <v>2.12461698913796</v>
+        <v>3.697694011909839</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.455735117667579</v>
+        <v>10.99748134173379</v>
       </c>
       <c r="K2">
-        <v>10.34896368667953</v>
+        <v>10.81443990301441</v>
       </c>
       <c r="L2">
-        <v>6.745758919827765</v>
+        <v>11.37542160696269</v>
       </c>
       <c r="M2">
-        <v>10.42082419593226</v>
+        <v>16.16178540163461</v>
       </c>
       <c r="N2">
-        <v>14.24805829512585</v>
+        <v>21.99220027066415</v>
       </c>
       <c r="O2">
-        <v>18.98247263886544</v>
+        <v>29.76247574023632</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.77507328120995</v>
+        <v>14.68204625040448</v>
       </c>
       <c r="C3">
-        <v>7.065209110422463</v>
+        <v>9.167035933157711</v>
       </c>
       <c r="D3">
-        <v>5.31162517161816</v>
+        <v>8.454046083180176</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.35842257115314</v>
+        <v>38.92682386148385</v>
       </c>
       <c r="G3">
-        <v>2.129183864861032</v>
+        <v>3.699464746767345</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.503317505777044</v>
+        <v>11.01697295416666</v>
       </c>
       <c r="K3">
-        <v>9.709102514008018</v>
+        <v>10.69719650617781</v>
       </c>
       <c r="L3">
-        <v>6.67584046089084</v>
+        <v>11.38400891367576</v>
       </c>
       <c r="M3">
-        <v>10.14124831799026</v>
+        <v>16.14516534871521</v>
       </c>
       <c r="N3">
-        <v>14.44684872361147</v>
+        <v>22.05247610616572</v>
       </c>
       <c r="O3">
-        <v>19.01193870059245</v>
+        <v>29.84027972293675</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.28738924304926</v>
+        <v>14.58819134287216</v>
       </c>
       <c r="C4">
-        <v>7.038069856488849</v>
+        <v>9.15983613829362</v>
       </c>
       <c r="D4">
-        <v>5.227166112988898</v>
+        <v>8.450710100676599</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.30263416139549</v>
+        <v>38.98362720418062</v>
       </c>
       <c r="G4">
-        <v>2.132081872482841</v>
+        <v>3.700610772019758</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.53375691752212</v>
+        <v>11.02963073672081</v>
       </c>
       <c r="K4">
-        <v>9.294222341145458</v>
+        <v>10.62636396506587</v>
       </c>
       <c r="L4">
-        <v>6.634835508921764</v>
+        <v>11.39049366030994</v>
       </c>
       <c r="M4">
-        <v>9.969401564743858</v>
+        <v>16.13706023727897</v>
       </c>
       <c r="N4">
-        <v>14.57181517681304</v>
+        <v>22.09123746158041</v>
       </c>
       <c r="O4">
-        <v>19.04180241759353</v>
+        <v>29.89282435771996</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.08394348836871</v>
+        <v>14.55046835658555</v>
       </c>
       <c r="C5">
-        <v>7.027052218726832</v>
+        <v>9.156910093184417</v>
       </c>
       <c r="D5">
-        <v>5.192820367353901</v>
+        <v>8.449625881899205</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.28390681507705</v>
+        <v>39.00849528854188</v>
       </c>
       <c r="G5">
-        <v>2.133286880713471</v>
+        <v>3.701092614149061</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.546470425268179</v>
+        <v>11.0349628103925</v>
       </c>
       <c r="K5">
-        <v>9.119632809284397</v>
+        <v>10.59781978800441</v>
       </c>
       <c r="L5">
-        <v>6.618618699682542</v>
+        <v>11.39344174558853</v>
       </c>
       <c r="M5">
-        <v>9.899422888304267</v>
+        <v>16.1342886416389</v>
       </c>
       <c r="N5">
-        <v>14.62349041473377</v>
+        <v>22.10747477985989</v>
       </c>
       <c r="O5">
-        <v>19.05683983472785</v>
+        <v>29.91543637915532</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.04988326393977</v>
+        <v>14.54423727778763</v>
       </c>
       <c r="C6">
-        <v>7.025225301358049</v>
+        <v>9.156424720373154</v>
       </c>
       <c r="D6">
-        <v>5.187123051794124</v>
+        <v>8.449462515353121</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.28103634329915</v>
+        <v>39.01272847981353</v>
       </c>
       <c r="G6">
-        <v>2.13348843598936</v>
+        <v>3.701173520540904</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.548600212994085</v>
+        <v>11.03585871518624</v>
       </c>
       <c r="K6">
-        <v>9.090309292691167</v>
+        <v>10.59310028569967</v>
       </c>
       <c r="L6">
-        <v>6.615955932357613</v>
+        <v>11.39394974410354</v>
       </c>
       <c r="M6">
-        <v>9.887808935078667</v>
+        <v>16.1338606019787</v>
       </c>
       <c r="N6">
-        <v>14.63211691440563</v>
+        <v>22.11019769195258</v>
       </c>
       <c r="O6">
-        <v>19.05950730124071</v>
+        <v>29.91926352956344</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.28466429718846</v>
+        <v>14.5876804243409</v>
       </c>
       <c r="C7">
-        <v>7.037921098216642</v>
+        <v>9.159796643799949</v>
       </c>
       <c r="D7">
-        <v>5.226702558692519</v>
+        <v>8.450694362127374</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.30236550055317</v>
+        <v>38.98395562013636</v>
       </c>
       <c r="G7">
-        <v>2.132098025725853</v>
+        <v>3.700617210214997</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.533927122371666</v>
+        <v>11.02970194211023</v>
       </c>
       <c r="K7">
-        <v>9.291890105708431</v>
+        <v>10.62597767058483</v>
       </c>
       <c r="L7">
-        <v>6.63461479592018</v>
+        <v>11.39053218136124</v>
       </c>
       <c r="M7">
-        <v>9.968457472992606</v>
+        <v>16.13702070313589</v>
       </c>
       <c r="N7">
-        <v>14.57250902411053</v>
+        <v>22.09145465343002</v>
       </c>
       <c r="O7">
-        <v>19.04199372771799</v>
+        <v>29.89312445465663</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.27883385147287</v>
+        <v>14.78387413530912</v>
       </c>
       <c r="C8">
-        <v>7.094309753855561</v>
+        <v>9.174744359973143</v>
       </c>
       <c r="D8">
-        <v>5.401862524853018</v>
+        <v>8.458542180820848</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.43191321268785</v>
+        <v>38.87209261874231</v>
       </c>
       <c r="G8">
-        <v>2.12617241608244</v>
+        <v>3.698292387250518</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.471888466699122</v>
+        <v>11.00405914475688</v>
       </c>
       <c r="K8">
-        <v>10.13290958087461</v>
+        <v>10.77379281172916</v>
       </c>
       <c r="L8">
-        <v>6.721257048903395</v>
+        <v>11.3781313704873</v>
       </c>
       <c r="M8">
-        <v>10.32452189123461</v>
+        <v>16.15562108502388</v>
       </c>
       <c r="N8">
-        <v>14.31600935113315</v>
+        <v>22.01262056514135</v>
       </c>
       <c r="O8">
-        <v>18.99013368026181</v>
+        <v>29.7883117175542</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.06741946548598</v>
+        <v>15.18203165550558</v>
       </c>
       <c r="C9">
-        <v>7.206153514046634</v>
+        <v>9.204266719239303</v>
       </c>
       <c r="D9">
-        <v>5.744134738415871</v>
+        <v>8.482491136826566</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.8191729532265</v>
+        <v>38.70708421662306</v>
       </c>
       <c r="G9">
-        <v>2.115277317778983</v>
+        <v>3.694197807939072</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.359871264183211</v>
+        <v>10.95922668653717</v>
       </c>
       <c r="K9">
-        <v>11.60756435473249</v>
+        <v>11.07148056817659</v>
       </c>
       <c r="L9">
-        <v>6.906012591244924</v>
+        <v>11.36339925314339</v>
       </c>
       <c r="M9">
-        <v>11.01727398175985</v>
+        <v>16.20860164337799</v>
       </c>
       <c r="N9">
-        <v>13.83518164958349</v>
+        <v>21.87186801080452</v>
       </c>
       <c r="O9">
-        <v>18.98599087600063</v>
+        <v>29.62066318914658</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.27697237056316</v>
+        <v>15.48026673501316</v>
       </c>
       <c r="C10">
-        <v>7.289080770762703</v>
+        <v>9.226055032320621</v>
       </c>
       <c r="D10">
-        <v>5.992376133342927</v>
+        <v>8.505198725904632</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.18977651806808</v>
+        <v>38.61903405321554</v>
       </c>
       <c r="G10">
-        <v>2.107685029009049</v>
+        <v>3.69146974998055</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.283354089293549</v>
+        <v>10.92958372274664</v>
       </c>
       <c r="K10">
-        <v>12.5850933791344</v>
+        <v>11.29314349717978</v>
       </c>
       <c r="L10">
-        <v>7.050201248132715</v>
+        <v>11.35837568286464</v>
       </c>
       <c r="M10">
-        <v>11.51793988267794</v>
+        <v>16.2573685730255</v>
       </c>
       <c r="N10">
-        <v>13.4940952572333</v>
+        <v>21.7768115726333</v>
       </c>
       <c r="O10">
-        <v>19.04812719493123</v>
+        <v>29.52061521480807</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.80369736496529</v>
+        <v>15.61665238889362</v>
       </c>
       <c r="C11">
-        <v>7.326972159593328</v>
+        <v>9.235982039859822</v>
       </c>
       <c r="D11">
-        <v>6.104139126711402</v>
+        <v>8.516614121981689</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.37798596213841</v>
+        <v>38.58618771919673</v>
       </c>
       <c r="G11">
-        <v>2.104313756962474</v>
+        <v>3.690288923882515</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.249780147858521</v>
+        <v>10.91680783589521</v>
       </c>
       <c r="K11">
-        <v>13.00702942095359</v>
+        <v>11.3942388087466</v>
       </c>
       <c r="L11">
-        <v>7.117495067030319</v>
+        <v>11.35733967056678</v>
       </c>
       <c r="M11">
-        <v>11.74298885823822</v>
+        <v>16.28163915344726</v>
       </c>
       <c r="N11">
-        <v>13.34125952567146</v>
+        <v>21.73536425728195</v>
       </c>
       <c r="O11">
-        <v>19.09177229916879</v>
+        <v>29.48012613818382</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.99973012417322</v>
+        <v>15.66835720768004</v>
       </c>
       <c r="C12">
-        <v>7.341345023467825</v>
+        <v>9.239742763131495</v>
       </c>
       <c r="D12">
-        <v>6.146258828736139</v>
+        <v>8.521090612212888</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.4521438814254</v>
+        <v>38.57478609813399</v>
       </c>
       <c r="G12">
-        <v>2.10304841355742</v>
+        <v>3.689850383503702</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.237242587754259</v>
+        <v>10.91207141056922</v>
       </c>
       <c r="K12">
-        <v>13.16355802384541</v>
+        <v>11.43252638307825</v>
       </c>
       <c r="L12">
-        <v>7.143210431234157</v>
+        <v>11.35712605636413</v>
       </c>
       <c r="M12">
-        <v>11.82775308272637</v>
+        <v>16.29112495555424</v>
       </c>
       <c r="N12">
-        <v>13.28369231741469</v>
+        <v>21.71992595139318</v>
       </c>
       <c r="O12">
-        <v>19.11061106051269</v>
+        <v>29.46551658226513</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.95766392238407</v>
+        <v>15.65721974998985</v>
       </c>
       <c r="C13">
-        <v>7.338248486911746</v>
+        <v>9.238932763925121</v>
       </c>
       <c r="D13">
-        <v>6.137197129576152</v>
+        <v>8.520119722041885</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.43604324996967</v>
+        <v>38.57719554161381</v>
       </c>
       <c r="G13">
-        <v>2.103320435602296</v>
+        <v>3.689944448613859</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.239934960871991</v>
+        <v>10.91308697553613</v>
       </c>
       <c r="K13">
-        <v>13.12999092500105</v>
+        <v>11.4242807574524</v>
       </c>
       <c r="L13">
-        <v>7.1376620102526</v>
+        <v>11.35716412964939</v>
       </c>
       <c r="M13">
-        <v>11.80951891296641</v>
+        <v>16.28906897672852</v>
       </c>
       <c r="N13">
-        <v>13.29607716298486</v>
+        <v>21.72323945929354</v>
       </c>
       <c r="O13">
-        <v>19.10644941500871</v>
+        <v>29.4686308595633</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.81989397820996</v>
+        <v>15.62090525560575</v>
       </c>
       <c r="C14">
-        <v>7.328154136318885</v>
+        <v>9.236291408791491</v>
       </c>
       <c r="D14">
-        <v>6.107608588583352</v>
+        <v>8.51697933865564</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.38402875884544</v>
+        <v>38.58522892723093</v>
       </c>
       <c r="G14">
-        <v>2.104209433680285</v>
+        <v>3.690252672522576</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.248745151926505</v>
+        <v>10.91641613491311</v>
       </c>
       <c r="K14">
-        <v>13.01997210997081</v>
+        <v>11.3973888343934</v>
       </c>
       <c r="L14">
-        <v>7.119606091251605</v>
+        <v>11.35731852049607</v>
       </c>
       <c r="M14">
-        <v>11.74997198153422</v>
+        <v>16.28241367181693</v>
       </c>
       <c r="N14">
-        <v>13.33651741162279</v>
+        <v>21.73408899648404</v>
       </c>
       <c r="O14">
-        <v>19.09327528299713</v>
+        <v>29.47890971341502</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.73505857782533</v>
+        <v>15.59866788880767</v>
       </c>
       <c r="C15">
-        <v>7.321974219196716</v>
+        <v>9.234673689491334</v>
       </c>
       <c r="D15">
-        <v>6.089457390609236</v>
+        <v>8.515075710337184</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.3525462287836</v>
+        <v>38.59028459690098</v>
       </c>
       <c r="G15">
-        <v>2.104755422466533</v>
+        <v>3.690442588996514</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.254164552306563</v>
+        <v>10.91846855084711</v>
       </c>
       <c r="K15">
-        <v>12.95215994151152</v>
+        <v>11.38091645090675</v>
       </c>
       <c r="L15">
-        <v>7.108576262893152</v>
+        <v>11.35743633289454</v>
       </c>
       <c r="M15">
-        <v>11.71343637506506</v>
+        <v>16.27837538012527</v>
       </c>
       <c r="N15">
-        <v>13.36132758934566</v>
+        <v>21.74076807296758</v>
       </c>
       <c r="O15">
-        <v>19.0855097032005</v>
+        <v>29.48529994707792</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.24207229201451</v>
+        <v>15.47136421708029</v>
       </c>
       <c r="C16">
-        <v>7.286607852431745</v>
+        <v>9.225406534884383</v>
       </c>
       <c r="D16">
-        <v>5.98504566180092</v>
+        <v>8.504474347204852</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.17787713327803</v>
+        <v>38.62132569541841</v>
       </c>
       <c r="G16">
-        <v>2.107906960876198</v>
+        <v>3.69154812721673</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.285572946330678</v>
+        <v>10.93043288603938</v>
       </c>
       <c r="K16">
-        <v>12.55706289824933</v>
+        <v>11.28653912825025</v>
       </c>
       <c r="L16">
-        <v>7.045836649019717</v>
+        <v>11.35846844745866</v>
       </c>
       <c r="M16">
-        <v>11.50317198196949</v>
+        <v>16.25582399753683</v>
       </c>
       <c r="N16">
-        <v>13.50412803931843</v>
+        <v>21.77955626190569</v>
       </c>
       <c r="O16">
-        <v>19.04559289159337</v>
+        <v>29.52336239132929</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.93358212599682</v>
+        <v>15.39341930223304</v>
       </c>
       <c r="C17">
-        <v>7.264954601172496</v>
+        <v>9.219724930698501</v>
       </c>
       <c r="D17">
-        <v>5.920668371296324</v>
+        <v>8.498247146762546</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.07579692029153</v>
+        <v>38.64221470678595</v>
       </c>
       <c r="G17">
-        <v>2.109861055420618</v>
+        <v>3.692241723558773</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.305156121057727</v>
+        <v>10.93795388082306</v>
       </c>
       <c r="K17">
-        <v>12.30887177549289</v>
+        <v>11.22868503210945</v>
       </c>
       <c r="L17">
-        <v>7.007775173545887</v>
+        <v>11.35942092339791</v>
       </c>
       <c r="M17">
-        <v>11.37343785658076</v>
+        <v>16.24252035758215</v>
       </c>
       <c r="N17">
-        <v>13.59230913861223</v>
+        <v>21.80381032405234</v>
       </c>
       <c r="O17">
-        <v>19.02511529259059</v>
+        <v>29.5479993814527</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.75393577838113</v>
+        <v>15.34865757791801</v>
       </c>
       <c r="C18">
-        <v>7.252515948899434</v>
+        <v>9.216458509576745</v>
       </c>
       <c r="D18">
-        <v>5.883532662608366</v>
+        <v>8.494767757675364</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.01892623260114</v>
+        <v>38.65490799145254</v>
       </c>
       <c r="G18">
-        <v>2.110992800547177</v>
+        <v>3.692646328800838</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.316536079710033</v>
+        <v>10.94234650202256</v>
       </c>
       <c r="K18">
-        <v>12.16397622380389</v>
+        <v>11.19543524385169</v>
       </c>
       <c r="L18">
-        <v>6.98604411074503</v>
+        <v>11.36008640532165</v>
       </c>
       <c r="M18">
-        <v>11.29856706268282</v>
+        <v>16.23506513569254</v>
       </c>
       <c r="N18">
-        <v>13.64324917441954</v>
+        <v>21.81792957727548</v>
       </c>
       <c r="O18">
-        <v>19.01477871166215</v>
+        <v>29.56264271688942</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.69273256757625</v>
+        <v>15.33351543892273</v>
       </c>
       <c r="C19">
-        <v>7.248307136579789</v>
+        <v>9.215352830119246</v>
       </c>
       <c r="D19">
-        <v>5.870941799122543</v>
+        <v>8.493607342485877</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.99998526809115</v>
+        <v>38.65932224246573</v>
       </c>
       <c r="G19">
-        <v>2.111377347061146</v>
+        <v>3.692784295750993</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.320409142034232</v>
+        <v>10.94384524384093</v>
       </c>
       <c r="K19">
-        <v>12.11454849464114</v>
+        <v>11.18418295839748</v>
       </c>
       <c r="L19">
-        <v>6.978714347922637</v>
+        <v>11.36033195914484</v>
       </c>
       <c r="M19">
-        <v>11.27317614712889</v>
+        <v>16.2325748521985</v>
       </c>
       <c r="N19">
-        <v>13.66053525630871</v>
+        <v>21.82273916717303</v>
       </c>
       <c r="O19">
-        <v>19.01152346984421</v>
+        <v>29.56768188614248</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.96665064593727</v>
+        <v>15.4017097380445</v>
       </c>
       <c r="C20">
-        <v>7.267257999217416</v>
+        <v>9.220329597794615</v>
       </c>
       <c r="D20">
-        <v>5.927532845302455</v>
+        <v>8.49889946878454</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.08647228130628</v>
+        <v>38.63992081465285</v>
       </c>
       <c r="G20">
-        <v>2.109652235373813</v>
+        <v>3.692167302832662</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.303059438438016</v>
+        <v>10.93714635329401</v>
       </c>
       <c r="K20">
-        <v>12.33551374907628</v>
+        <v>11.23484120762705</v>
       </c>
       <c r="L20">
-        <v>7.011810318553878</v>
+        <v>11.35930736174705</v>
       </c>
       <c r="M20">
-        <v>11.38727478366456</v>
+        <v>16.24391623215448</v>
       </c>
       <c r="N20">
-        <v>13.5828994635227</v>
+        <v>21.80121095940973</v>
       </c>
       <c r="O20">
-        <v>19.02714524427593</v>
+        <v>29.54532779631175</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.86045363376586</v>
+        <v>15.63157046665262</v>
       </c>
       <c r="C21">
-        <v>7.331118431623286</v>
+        <v>9.237067200993053</v>
       </c>
       <c r="D21">
-        <v>6.116305220732293</v>
+        <v>8.517897592819621</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.39922782241464</v>
+        <v>38.58284119586617</v>
       </c>
       <c r="G21">
-        <v>2.103948011922096</v>
+        <v>3.690161906265033</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.246152614329606</v>
+        <v>10.91543552793518</v>
       </c>
       <c r="K21">
-        <v>13.05237530108493</v>
+        <v>11.40528776444821</v>
       </c>
       <c r="L21">
-        <v>7.12490333344057</v>
+        <v>11.35726832996726</v>
       </c>
       <c r="M21">
-        <v>11.76747526322306</v>
+        <v>16.28436052893295</v>
       </c>
       <c r="N21">
-        <v>13.32463097693699</v>
+        <v>21.73089526136836</v>
       </c>
       <c r="O21">
-        <v>19.09708132313778</v>
+        <v>29.47587094574138</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.42462259628054</v>
+        <v>15.78211869481182</v>
       </c>
       <c r="C22">
-        <v>7.372996398790693</v>
+        <v>9.248015108771401</v>
       </c>
       <c r="D22">
-        <v>6.238484497287657</v>
+        <v>8.531208819291281</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.62048682506045</v>
+        <v>38.55157812382301</v>
       </c>
       <c r="G22">
-        <v>2.100285452345694</v>
+        <v>3.688901447046403</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.209986964786467</v>
+        <v>10.90183783309078</v>
       </c>
       <c r="K22">
-        <v>13.50195819855797</v>
+        <v>11.51669882368226</v>
       </c>
       <c r="L22">
-        <v>7.200166802712666</v>
+        <v>11.35697684386547</v>
       </c>
       <c r="M22">
-        <v>12.01326867214124</v>
+        <v>16.31251058916561</v>
       </c>
       <c r="N22">
-        <v>13.15762178323963</v>
+        <v>21.68643673960608</v>
       </c>
       <c r="O22">
-        <v>19.15630666565966</v>
+        <v>29.43468993450623</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.12535458762392</v>
+        <v>15.70175346765545</v>
       </c>
       <c r="C23">
-        <v>7.350632252220334</v>
+        <v>9.242171399360778</v>
       </c>
       <c r="D23">
-        <v>6.173395172655048</v>
+        <v>8.524023304878762</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.50083405193229</v>
+        <v>38.56771104993894</v>
       </c>
       <c r="G23">
-        <v>2.102234437774225</v>
+        <v>3.6895695995724</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.229195765471709</v>
+        <v>10.90904118158692</v>
       </c>
       <c r="K23">
-        <v>13.26373116036536</v>
+        <v>11.45724587988976</v>
       </c>
       <c r="L23">
-        <v>7.159877622422653</v>
+        <v>11.35703747302656</v>
       </c>
       <c r="M23">
-        <v>11.88235067149312</v>
+        <v>16.29733092703744</v>
       </c>
       <c r="N23">
-        <v>13.24660350306745</v>
+        <v>21.71002849797889</v>
       </c>
       <c r="O23">
-        <v>19.1234272102555</v>
+        <v>29.45628339497241</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.95170750108854</v>
+        <v>15.39796147334337</v>
       </c>
       <c r="C24">
-        <v>7.266216601538805</v>
+        <v>9.220056227731231</v>
       </c>
       <c r="D24">
-        <v>5.924429801204559</v>
+        <v>8.498604240126502</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.08164029736614</v>
+        <v>38.64095575294978</v>
       </c>
       <c r="G24">
-        <v>2.109746616989546</v>
+        <v>3.692200930225397</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.304006970633397</v>
+        <v>10.93751122246211</v>
       </c>
       <c r="K24">
-        <v>12.3234757892479</v>
+        <v>11.23205796299159</v>
       </c>
       <c r="L24">
-        <v>7.009985558290446</v>
+        <v>11.35935833568605</v>
       </c>
       <c r="M24">
-        <v>11.38101999115784</v>
+        <v>16.24328455503621</v>
       </c>
       <c r="N24">
-        <v>13.58715281707638</v>
+        <v>21.80238558611402</v>
       </c>
       <c r="O24">
-        <v>19.02622303704502</v>
+        <v>29.54653412729893</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.60155743969464</v>
+        <v>15.07313694823101</v>
       </c>
       <c r="C25">
-        <v>7.175763636898489</v>
+        <v>9.196260704732861</v>
       </c>
       <c r="D25">
-        <v>5.651938304368602</v>
+        <v>8.475106393181834</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.69962076503901</v>
+        <v>38.74589862952249</v>
       </c>
       <c r="G25">
-        <v>2.118150089905255</v>
+        <v>3.695256082440443</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.389152773168755</v>
+        <v>10.97077427154539</v>
       </c>
       <c r="K25">
-        <v>11.22728919760081</v>
+        <v>10.9902980410689</v>
       </c>
       <c r="L25">
-        <v>6.854501991343549</v>
+        <v>11.36636278589563</v>
       </c>
       <c r="M25">
-        <v>10.83098962637342</v>
+        <v>16.19252368929169</v>
       </c>
       <c r="N25">
-        <v>13.96301912402321</v>
+        <v>21.90847219749204</v>
       </c>
       <c r="O25">
-        <v>18.97607891057248</v>
+        <v>29.66195742122905</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.83803220311825</v>
+        <v>13.53761338476519</v>
       </c>
       <c r="C2">
-        <v>9.178809736610043</v>
+        <v>7.109674888578701</v>
       </c>
       <c r="D2">
-        <v>8.461251432989892</v>
+        <v>5.449338181178338</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.84545948736759</v>
+        <v>25.47583459237223</v>
       </c>
       <c r="G2">
-        <v>3.697694011909839</v>
+        <v>2.12461698913796</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.99748134173379</v>
+        <v>6.455735117667611</v>
       </c>
       <c r="K2">
-        <v>10.81443990301441</v>
+        <v>10.34896368667953</v>
       </c>
       <c r="L2">
-        <v>11.37542160696269</v>
+        <v>6.745758919827765</v>
       </c>
       <c r="M2">
-        <v>16.16178540163461</v>
+        <v>10.42082419593225</v>
       </c>
       <c r="N2">
-        <v>21.99220027066415</v>
+        <v>14.24805829512585</v>
       </c>
       <c r="O2">
-        <v>29.76247574023632</v>
+        <v>18.98247263886542</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.68204625040448</v>
+        <v>12.77507328120991</v>
       </c>
       <c r="C3">
-        <v>9.167035933157711</v>
+        <v>7.065209110422463</v>
       </c>
       <c r="D3">
-        <v>8.454046083180176</v>
+        <v>5.31162517161823</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.92682386148385</v>
+        <v>25.35842257115295</v>
       </c>
       <c r="G3">
-        <v>3.699464746767345</v>
+        <v>2.129183864860897</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.01697295416666</v>
+        <v>6.503317505777044</v>
       </c>
       <c r="K3">
-        <v>10.69719650617781</v>
+        <v>9.709102514008109</v>
       </c>
       <c r="L3">
-        <v>11.38400891367576</v>
+        <v>6.675840460890889</v>
       </c>
       <c r="M3">
-        <v>16.14516534871521</v>
+        <v>10.1412483179902</v>
       </c>
       <c r="N3">
-        <v>22.05247610616572</v>
+        <v>14.4468487236114</v>
       </c>
       <c r="O3">
-        <v>29.84027972293675</v>
+        <v>19.01193870059224</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.58819134287216</v>
+        <v>12.2873892430493</v>
       </c>
       <c r="C4">
-        <v>9.15983613829362</v>
+        <v>7.038069856488977</v>
       </c>
       <c r="D4">
-        <v>8.450710100676599</v>
+        <v>5.227166112988843</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38.98362720418062</v>
+        <v>25.3026341613956</v>
       </c>
       <c r="G4">
-        <v>3.700610772019758</v>
+        <v>2.132081872482976</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.02963073672081</v>
+        <v>6.53375691752212</v>
       </c>
       <c r="K4">
-        <v>10.62636396506587</v>
+        <v>9.294222341145462</v>
       </c>
       <c r="L4">
-        <v>11.39049366030994</v>
+        <v>6.63483550892165</v>
       </c>
       <c r="M4">
-        <v>16.13706023727897</v>
+        <v>9.969401564743832</v>
       </c>
       <c r="N4">
-        <v>22.09123746158041</v>
+        <v>14.57181517681318</v>
       </c>
       <c r="O4">
-        <v>29.89282435771996</v>
+        <v>19.04180241759366</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.55046835658555</v>
+        <v>12.08394348836868</v>
       </c>
       <c r="C5">
-        <v>9.156910093184417</v>
+        <v>7.027052218726689</v>
       </c>
       <c r="D5">
-        <v>8.449625881899205</v>
+        <v>5.192820367353896</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.00849528854188</v>
+        <v>25.28390681507688</v>
       </c>
       <c r="G5">
-        <v>3.701092614149061</v>
+        <v>2.133286880713469</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.0349628103925</v>
+        <v>6.546470425268177</v>
       </c>
       <c r="K5">
-        <v>10.59781978800441</v>
+        <v>9.119632809284402</v>
       </c>
       <c r="L5">
-        <v>11.39344174558853</v>
+        <v>6.618618699682592</v>
       </c>
       <c r="M5">
-        <v>16.1342886416389</v>
+        <v>9.899422888304237</v>
       </c>
       <c r="N5">
-        <v>22.10747477985989</v>
+        <v>14.62349041473367</v>
       </c>
       <c r="O5">
-        <v>29.91543637915532</v>
+        <v>19.0568398347277</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.54423727778763</v>
+        <v>12.04988326393977</v>
       </c>
       <c r="C6">
-        <v>9.156424720373154</v>
+        <v>7.02522530135819</v>
       </c>
       <c r="D6">
-        <v>8.449462515353121</v>
+        <v>5.187123051794162</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.01272847981353</v>
+        <v>25.28103634329912</v>
       </c>
       <c r="G6">
-        <v>3.701173520540904</v>
+        <v>2.13348843598936</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.03585871518624</v>
+        <v>6.548600212994087</v>
       </c>
       <c r="K6">
-        <v>10.59310028569967</v>
+        <v>9.090309292691186</v>
       </c>
       <c r="L6">
-        <v>11.39394974410354</v>
+        <v>6.615955932357531</v>
       </c>
       <c r="M6">
-        <v>16.1338606019787</v>
+        <v>9.887808935078636</v>
       </c>
       <c r="N6">
-        <v>22.11019769195258</v>
+        <v>14.63211691440563</v>
       </c>
       <c r="O6">
-        <v>29.91926352956344</v>
+        <v>19.05950730124064</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.5876804243409</v>
+        <v>12.28466429718848</v>
       </c>
       <c r="C7">
-        <v>9.159796643799949</v>
+        <v>7.037921098216894</v>
       </c>
       <c r="D7">
-        <v>8.450694362127374</v>
+        <v>5.226702558692621</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>38.98395562013636</v>
+        <v>25.30236550055325</v>
       </c>
       <c r="G7">
-        <v>3.700617210214997</v>
+        <v>2.132098025725985</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.02970194211023</v>
+        <v>6.533927122371698</v>
       </c>
       <c r="K7">
-        <v>10.62597767058483</v>
+        <v>9.291890105708442</v>
       </c>
       <c r="L7">
-        <v>11.39053218136124</v>
+        <v>6.634614795920178</v>
       </c>
       <c r="M7">
-        <v>16.13702070313589</v>
+        <v>9.968457472992649</v>
       </c>
       <c r="N7">
-        <v>22.09145465343002</v>
+        <v>14.57250902411057</v>
       </c>
       <c r="O7">
-        <v>29.89312445465663</v>
+        <v>19.04199372771804</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.78387413530912</v>
+        <v>13.27883385147285</v>
       </c>
       <c r="C8">
-        <v>9.174744359973143</v>
+        <v>7.094309753855824</v>
       </c>
       <c r="D8">
-        <v>8.458542180820848</v>
+        <v>5.401862524852941</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.87209261874231</v>
+        <v>25.43191321268757</v>
       </c>
       <c r="G8">
-        <v>3.698292387250518</v>
+        <v>2.126172416082307</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.00405914475688</v>
+        <v>6.471888466699056</v>
       </c>
       <c r="K8">
-        <v>10.77379281172916</v>
+        <v>10.13290958087469</v>
       </c>
       <c r="L8">
-        <v>11.3781313704873</v>
+        <v>6.721257048903244</v>
       </c>
       <c r="M8">
-        <v>16.15562108502388</v>
+        <v>10.32452189123451</v>
       </c>
       <c r="N8">
-        <v>22.01262056514135</v>
+        <v>14.31600935113309</v>
       </c>
       <c r="O8">
-        <v>29.7883117175542</v>
+        <v>18.99013368026161</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.18203165550558</v>
+        <v>15.06741946548598</v>
       </c>
       <c r="C9">
-        <v>9.204266719239303</v>
+        <v>7.206153514046887</v>
       </c>
       <c r="D9">
-        <v>8.482491136826566</v>
+        <v>5.744134738415825</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>38.70708421662306</v>
+        <v>25.81917295322623</v>
       </c>
       <c r="G9">
-        <v>3.694197807939072</v>
+        <v>2.115277317778983</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.95922668653717</v>
+        <v>6.359871264183309</v>
       </c>
       <c r="K9">
-        <v>11.07148056817659</v>
+        <v>11.60756435473254</v>
       </c>
       <c r="L9">
-        <v>11.36339925314339</v>
+        <v>6.906012591244931</v>
       </c>
       <c r="M9">
-        <v>16.20860164337799</v>
+        <v>11.01727398175982</v>
       </c>
       <c r="N9">
-        <v>21.87186801080452</v>
+        <v>13.83518164958342</v>
       </c>
       <c r="O9">
-        <v>29.62066318914658</v>
+        <v>18.98599087600044</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.48026673501316</v>
+        <v>16.27697237056316</v>
       </c>
       <c r="C10">
-        <v>9.226055032320621</v>
+        <v>7.289080770762697</v>
       </c>
       <c r="D10">
-        <v>8.505198725904632</v>
+        <v>5.99237613334289</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.61903405321554</v>
+        <v>26.18977651806792</v>
       </c>
       <c r="G10">
-        <v>3.69146974998055</v>
+        <v>2.107685029008915</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.92958372274664</v>
+        <v>6.283354089293644</v>
       </c>
       <c r="K10">
-        <v>11.29314349717978</v>
+        <v>12.58509337913442</v>
       </c>
       <c r="L10">
-        <v>11.35837568286464</v>
+        <v>7.050201248132717</v>
       </c>
       <c r="M10">
-        <v>16.2573685730255</v>
+        <v>11.51793988267793</v>
       </c>
       <c r="N10">
-        <v>21.7768115726333</v>
+        <v>13.49409525723324</v>
       </c>
       <c r="O10">
-        <v>29.52061521480807</v>
+        <v>19.04812719493111</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.61665238889362</v>
+        <v>16.80369736496529</v>
       </c>
       <c r="C11">
-        <v>9.235982039859822</v>
+        <v>7.326972159593584</v>
       </c>
       <c r="D11">
-        <v>8.516614121981689</v>
+        <v>6.10413912671145</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.58618771919673</v>
+        <v>26.3779859621384</v>
       </c>
       <c r="G11">
-        <v>3.690288923882515</v>
+        <v>2.104313756962606</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.91680783589521</v>
+        <v>6.249780147858586</v>
       </c>
       <c r="K11">
-        <v>11.3942388087466</v>
+        <v>13.00702942095362</v>
       </c>
       <c r="L11">
-        <v>11.35733967056678</v>
+        <v>7.117495067030323</v>
       </c>
       <c r="M11">
-        <v>16.28163915344726</v>
+        <v>11.74298885823823</v>
       </c>
       <c r="N11">
-        <v>21.73536425728195</v>
+        <v>13.34125952567146</v>
       </c>
       <c r="O11">
-        <v>29.48012613818382</v>
+        <v>19.09177229916876</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.66835720768004</v>
+        <v>16.99973012417319</v>
       </c>
       <c r="C12">
-        <v>9.239742763131495</v>
+        <v>7.341345023467845</v>
       </c>
       <c r="D12">
-        <v>8.521090612212888</v>
+        <v>6.146258828736195</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.57478609813399</v>
+        <v>26.45214388142531</v>
       </c>
       <c r="G12">
-        <v>3.689850383503702</v>
+        <v>2.103048413557821</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.91207141056922</v>
+        <v>6.237242587754257</v>
       </c>
       <c r="K12">
-        <v>11.43252638307825</v>
+        <v>13.16355802384546</v>
       </c>
       <c r="L12">
-        <v>11.35712605636413</v>
+        <v>7.143210431234142</v>
       </c>
       <c r="M12">
-        <v>16.29112495555424</v>
+        <v>11.82775308272636</v>
       </c>
       <c r="N12">
-        <v>21.71992595139318</v>
+        <v>13.28369231741465</v>
       </c>
       <c r="O12">
-        <v>29.46551658226513</v>
+        <v>19.1106110605126</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.65721974998985</v>
+        <v>16.95766392238406</v>
       </c>
       <c r="C13">
-        <v>9.238932763925121</v>
+        <v>7.338248486911876</v>
       </c>
       <c r="D13">
-        <v>8.520119722041885</v>
+        <v>6.137197129576168</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.57719554161381</v>
+        <v>26.4360432499696</v>
       </c>
       <c r="G13">
-        <v>3.689944448613859</v>
+        <v>2.103320435602297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.91308697553613</v>
+        <v>6.239934960871892</v>
       </c>
       <c r="K13">
-        <v>11.4242807574524</v>
+        <v>13.12999092500103</v>
       </c>
       <c r="L13">
-        <v>11.35716412964939</v>
+        <v>7.137662010252527</v>
       </c>
       <c r="M13">
-        <v>16.28906897672852</v>
+        <v>11.80951891296639</v>
       </c>
       <c r="N13">
-        <v>21.72323945929354</v>
+        <v>13.29607716298476</v>
       </c>
       <c r="O13">
-        <v>29.4686308595633</v>
+        <v>19.10644941500867</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.62090525560575</v>
+        <v>16.81989397820998</v>
       </c>
       <c r="C14">
-        <v>9.236291408791491</v>
+        <v>7.328154136319245</v>
       </c>
       <c r="D14">
-        <v>8.51697933865564</v>
+        <v>6.107608588583516</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.58522892723093</v>
+        <v>26.38402875884543</v>
       </c>
       <c r="G14">
-        <v>3.690252672522576</v>
+        <v>2.104209433680688</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.91641613491311</v>
+        <v>6.248745151926503</v>
       </c>
       <c r="K14">
-        <v>11.3973888343934</v>
+        <v>13.01997210997088</v>
       </c>
       <c r="L14">
-        <v>11.35731852049607</v>
+        <v>7.119606091251601</v>
       </c>
       <c r="M14">
-        <v>16.28241367181693</v>
+        <v>11.74997198153422</v>
       </c>
       <c r="N14">
-        <v>21.73408899648404</v>
+        <v>13.33651741162283</v>
       </c>
       <c r="O14">
-        <v>29.47890971341502</v>
+        <v>19.09327528299703</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.59866788880767</v>
+        <v>16.73505857782531</v>
       </c>
       <c r="C15">
-        <v>9.234673689491334</v>
+        <v>7.321974219196342</v>
       </c>
       <c r="D15">
-        <v>8.515075710337184</v>
+        <v>6.089457390609156</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.59028459690098</v>
+        <v>26.35254622878352</v>
       </c>
       <c r="G15">
-        <v>3.690442588996514</v>
+        <v>2.104755422466401</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.91846855084711</v>
+        <v>6.254164552306561</v>
       </c>
       <c r="K15">
-        <v>11.38091645090675</v>
+        <v>12.95215994151152</v>
       </c>
       <c r="L15">
-        <v>11.35743633289454</v>
+        <v>7.108576262893171</v>
       </c>
       <c r="M15">
-        <v>16.27837538012527</v>
+        <v>11.71343637506505</v>
       </c>
       <c r="N15">
-        <v>21.74076807296758</v>
+        <v>13.36132758934567</v>
       </c>
       <c r="O15">
-        <v>29.48529994707792</v>
+        <v>19.08550970320051</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.47136421708029</v>
+        <v>16.24207229201448</v>
       </c>
       <c r="C16">
-        <v>9.225406534884383</v>
+        <v>7.286607852431608</v>
       </c>
       <c r="D16">
-        <v>8.504474347204852</v>
+        <v>5.985045661800736</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.62132569541841</v>
+        <v>26.17787713327778</v>
       </c>
       <c r="G16">
-        <v>3.69154812721673</v>
+        <v>2.10790696087553</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.93043288603938</v>
+        <v>6.285572946330742</v>
       </c>
       <c r="K16">
-        <v>11.28653912825025</v>
+        <v>12.55706289824933</v>
       </c>
       <c r="L16">
-        <v>11.35846844745866</v>
+        <v>7.045836649019723</v>
       </c>
       <c r="M16">
-        <v>16.25582399753683</v>
+        <v>11.50317198196946</v>
       </c>
       <c r="N16">
-        <v>21.77955626190569</v>
+        <v>13.50412803931836</v>
       </c>
       <c r="O16">
-        <v>29.52336239132929</v>
+        <v>19.04559289159327</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.39341930223304</v>
+        <v>15.93358212599682</v>
       </c>
       <c r="C17">
-        <v>9.219724930698501</v>
+        <v>7.264954601172496</v>
       </c>
       <c r="D17">
-        <v>8.498247146762546</v>
+        <v>5.920668371296255</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>38.64221470678595</v>
+        <v>26.07579692029145</v>
       </c>
       <c r="G17">
-        <v>3.692241723558773</v>
+        <v>2.109861055420617</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.93795388082306</v>
+        <v>6.305156121057691</v>
       </c>
       <c r="K17">
-        <v>11.22868503210945</v>
+        <v>12.3088717754929</v>
       </c>
       <c r="L17">
-        <v>11.35942092339791</v>
+        <v>7.007775173545867</v>
       </c>
       <c r="M17">
-        <v>16.24252035758215</v>
+        <v>11.37343785658073</v>
       </c>
       <c r="N17">
-        <v>21.80381032405234</v>
+        <v>13.59230913861223</v>
       </c>
       <c r="O17">
-        <v>29.5479993814527</v>
+        <v>19.02511529259057</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.34865757791801</v>
+        <v>15.75393577838114</v>
       </c>
       <c r="C18">
-        <v>9.216458509576745</v>
+        <v>7.252515948899428</v>
       </c>
       <c r="D18">
-        <v>8.494767757675364</v>
+        <v>5.88353266260843</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.65490799145254</v>
+        <v>26.01892623260129</v>
       </c>
       <c r="G18">
-        <v>3.692646328800838</v>
+        <v>2.110992800547041</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.94234650202256</v>
+        <v>6.316536079710032</v>
       </c>
       <c r="K18">
-        <v>11.19543524385169</v>
+        <v>12.16397622380385</v>
       </c>
       <c r="L18">
-        <v>11.36008640532165</v>
+        <v>6.986044110745078</v>
       </c>
       <c r="M18">
-        <v>16.23506513569254</v>
+        <v>11.29856706268286</v>
       </c>
       <c r="N18">
-        <v>21.81792957727548</v>
+        <v>13.64324917441961</v>
       </c>
       <c r="O18">
-        <v>29.56264271688942</v>
+        <v>19.01477871166226</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.33351543892273</v>
+        <v>15.69273256757622</v>
       </c>
       <c r="C19">
-        <v>9.215352830119246</v>
+        <v>7.248307136580054</v>
       </c>
       <c r="D19">
-        <v>8.493607342485877</v>
+        <v>5.870941799122543</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38.65932224246573</v>
+        <v>25.9999852680909</v>
       </c>
       <c r="G19">
-        <v>3.692784295750993</v>
+        <v>2.111377347061281</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.94384524384093</v>
+        <v>6.320409142034197</v>
       </c>
       <c r="K19">
-        <v>11.18418295839748</v>
+        <v>12.11454849464119</v>
       </c>
       <c r="L19">
-        <v>11.36033195914484</v>
+        <v>6.978714347922582</v>
       </c>
       <c r="M19">
-        <v>16.2325748521985</v>
+        <v>11.27317614712881</v>
       </c>
       <c r="N19">
-        <v>21.82273916717303</v>
+        <v>13.66053525630864</v>
       </c>
       <c r="O19">
-        <v>29.56768188614248</v>
+        <v>19.011523469844</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.4017097380445</v>
+        <v>15.96665064593727</v>
       </c>
       <c r="C20">
-        <v>9.220329597794615</v>
+        <v>7.267257999217554</v>
       </c>
       <c r="D20">
-        <v>8.49889946878454</v>
+        <v>5.927532845302494</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>38.63992081465285</v>
+        <v>26.08647228130636</v>
       </c>
       <c r="G20">
-        <v>3.692167302832662</v>
+        <v>2.109652235374081</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.93714635329401</v>
+        <v>6.303059438438112</v>
       </c>
       <c r="K20">
-        <v>11.23484120762705</v>
+        <v>12.33551374907624</v>
       </c>
       <c r="L20">
-        <v>11.35930736174705</v>
+        <v>7.011810318553971</v>
       </c>
       <c r="M20">
-        <v>16.24391623215448</v>
+        <v>11.3872747836646</v>
       </c>
       <c r="N20">
-        <v>21.80121095940973</v>
+        <v>13.58289946352273</v>
       </c>
       <c r="O20">
-        <v>29.54532779631175</v>
+        <v>19.02714524427597</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.63157046665262</v>
+        <v>16.86045363376586</v>
       </c>
       <c r="C21">
-        <v>9.237067200993053</v>
+        <v>7.331118431623529</v>
       </c>
       <c r="D21">
-        <v>8.517897592819621</v>
+        <v>6.116305220732234</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.58284119586617</v>
+        <v>26.39922782241466</v>
       </c>
       <c r="G21">
-        <v>3.690161906265033</v>
+        <v>2.103948011921964</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.91543552793518</v>
+        <v>6.246152614329672</v>
       </c>
       <c r="K21">
-        <v>11.40528776444821</v>
+        <v>13.05237530108493</v>
       </c>
       <c r="L21">
-        <v>11.35726832996726</v>
+        <v>7.124903333440503</v>
       </c>
       <c r="M21">
-        <v>16.28436052893295</v>
+        <v>11.76747526322307</v>
       </c>
       <c r="N21">
-        <v>21.73089526136836</v>
+        <v>13.32463097693706</v>
       </c>
       <c r="O21">
-        <v>29.47587094574138</v>
+        <v>19.09708132313782</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.78211869481182</v>
+        <v>17.42462259628055</v>
       </c>
       <c r="C22">
-        <v>9.248015108771401</v>
+        <v>7.372996398791059</v>
       </c>
       <c r="D22">
-        <v>8.531208819291281</v>
+        <v>6.23848449728774</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.55157812382301</v>
+        <v>26.62048682506039</v>
       </c>
       <c r="G22">
-        <v>3.688901447046403</v>
+        <v>2.100285452345825</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.90183783309078</v>
+        <v>6.209986964786463</v>
       </c>
       <c r="K22">
-        <v>11.51669882368226</v>
+        <v>13.501958198558</v>
       </c>
       <c r="L22">
-        <v>11.35697684386547</v>
+        <v>7.200166802712632</v>
       </c>
       <c r="M22">
-        <v>16.31251058916561</v>
+        <v>12.01326867214122</v>
       </c>
       <c r="N22">
-        <v>21.68643673960608</v>
+        <v>13.1576217832396</v>
       </c>
       <c r="O22">
-        <v>29.43468993450623</v>
+        <v>19.15630666565956</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.70175346765545</v>
+        <v>17.12535458762393</v>
       </c>
       <c r="C23">
-        <v>9.242171399360778</v>
+        <v>7.350632252220445</v>
       </c>
       <c r="D23">
-        <v>8.524023304878762</v>
+        <v>6.173395172655082</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.56771104993894</v>
+        <v>26.50083405193221</v>
       </c>
       <c r="G23">
-        <v>3.6895695995724</v>
+        <v>2.102234437773959</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.90904118158692</v>
+        <v>6.229195765471611</v>
       </c>
       <c r="K23">
-        <v>11.45724587988976</v>
+        <v>13.26373116036538</v>
       </c>
       <c r="L23">
-        <v>11.35703747302656</v>
+        <v>7.159877622422592</v>
       </c>
       <c r="M23">
-        <v>16.29733092703744</v>
+        <v>11.88235067149308</v>
       </c>
       <c r="N23">
-        <v>21.71002849797889</v>
+        <v>13.24660350306739</v>
       </c>
       <c r="O23">
-        <v>29.45628339497241</v>
+        <v>19.12342721025543</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.39796147334337</v>
+        <v>15.95170750108852</v>
       </c>
       <c r="C24">
-        <v>9.220056227731231</v>
+        <v>7.266216601538678</v>
       </c>
       <c r="D24">
-        <v>8.498604240126502</v>
+        <v>5.924429801204483</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>38.64095575294978</v>
+        <v>26.08164029736605</v>
       </c>
       <c r="G24">
-        <v>3.692200930225397</v>
+        <v>2.109746616989544</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.93751122246211</v>
+        <v>6.304006970633363</v>
       </c>
       <c r="K24">
-        <v>11.23205796299159</v>
+        <v>12.32347578924794</v>
       </c>
       <c r="L24">
-        <v>11.35935833568605</v>
+        <v>7.009985558290419</v>
       </c>
       <c r="M24">
-        <v>16.24328455503621</v>
+        <v>11.38101999115779</v>
       </c>
       <c r="N24">
-        <v>21.80238558611402</v>
+        <v>13.58715281707642</v>
       </c>
       <c r="O24">
-        <v>29.54653412729893</v>
+        <v>19.02622303704497</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.07313694823101</v>
+        <v>14.60155743969463</v>
       </c>
       <c r="C25">
-        <v>9.196260704732861</v>
+        <v>7.175763636898748</v>
       </c>
       <c r="D25">
-        <v>8.475106393181834</v>
+        <v>5.651938304368645</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.74589862952249</v>
+        <v>25.69962076503897</v>
       </c>
       <c r="G25">
-        <v>3.695256082440443</v>
+        <v>2.118150089904987</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.97077427154539</v>
+        <v>6.389152773168788</v>
       </c>
       <c r="K25">
-        <v>10.9902980410689</v>
+        <v>11.2272891976009</v>
       </c>
       <c r="L25">
-        <v>11.36636278589563</v>
+        <v>6.854501991343544</v>
       </c>
       <c r="M25">
-        <v>16.19252368929169</v>
+        <v>10.83098962637339</v>
       </c>
       <c r="N25">
-        <v>21.90847219749204</v>
+        <v>13.96301912402324</v>
       </c>
       <c r="O25">
-        <v>29.66195742122905</v>
+        <v>18.97607891057242</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.53761338476519</v>
+        <v>21.157749685248</v>
       </c>
       <c r="C2">
-        <v>7.109674888578701</v>
+        <v>13.99022540597416</v>
       </c>
       <c r="D2">
-        <v>5.449338181178338</v>
+        <v>6.154568214166287</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.47583459237223</v>
+        <v>19.37895461553216</v>
       </c>
       <c r="G2">
-        <v>2.12461698913796</v>
+        <v>20.55584626292864</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.568062394287844</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.002448106108903</v>
       </c>
       <c r="J2">
-        <v>6.455735117667611</v>
+        <v>8.691421084995564</v>
       </c>
       <c r="K2">
-        <v>10.34896368667953</v>
+        <v>13.93114414878065</v>
       </c>
       <c r="L2">
-        <v>6.745758919827765</v>
+        <v>6.748530780451634</v>
       </c>
       <c r="M2">
-        <v>10.42082419593225</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.24805829512585</v>
+        <v>7.415833870006422</v>
       </c>
       <c r="O2">
-        <v>18.98247263886542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.16775716560496</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.89093135757961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.77507328120991</v>
+        <v>19.77778184917819</v>
       </c>
       <c r="C3">
-        <v>7.065209110422463</v>
+        <v>13.4314925882849</v>
       </c>
       <c r="D3">
-        <v>5.31162517161823</v>
+        <v>6.06583411998083</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.35842257115295</v>
+        <v>19.30552294949763</v>
       </c>
       <c r="G3">
-        <v>2.129183864860897</v>
+        <v>20.37671766669722</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.753172050596274</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.147594124257242</v>
       </c>
       <c r="J3">
-        <v>6.503317505777044</v>
+        <v>8.749292752100253</v>
       </c>
       <c r="K3">
-        <v>9.709102514008109</v>
+        <v>14.15926858353707</v>
       </c>
       <c r="L3">
-        <v>6.675840460890889</v>
+        <v>6.726397374632251</v>
       </c>
       <c r="M3">
-        <v>10.1412483179902</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.4468487236114</v>
+        <v>7.235082457056636</v>
       </c>
       <c r="O3">
-        <v>19.01193870059224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.49728525488543</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.92857501352099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.2873892430493</v>
+        <v>18.87829186184196</v>
       </c>
       <c r="C4">
-        <v>7.038069856488977</v>
+        <v>13.0783950305403</v>
       </c>
       <c r="D4">
-        <v>5.227166112988843</v>
+        <v>6.011652941724151</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.3026341613956</v>
+        <v>19.26981417163079</v>
       </c>
       <c r="G4">
-        <v>2.132081872482976</v>
+        <v>20.28060102809846</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.870921095287283</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.240650194170594</v>
       </c>
       <c r="J4">
-        <v>6.53375691752212</v>
+        <v>8.78813531266821</v>
       </c>
       <c r="K4">
-        <v>9.294222341145462</v>
+        <v>14.30399141854913</v>
       </c>
       <c r="L4">
-        <v>6.63483550892165</v>
+        <v>6.712235903302363</v>
       </c>
       <c r="M4">
-        <v>9.969401564743832</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.57181517681318</v>
+        <v>7.122457607801662</v>
       </c>
       <c r="O4">
-        <v>19.04180241759366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.06709660788996</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.9589822067824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.08394348836868</v>
+        <v>18.49817928583184</v>
       </c>
       <c r="C5">
-        <v>7.027052218726689</v>
+        <v>12.94044201681823</v>
       </c>
       <c r="D5">
-        <v>5.192820367353896</v>
+        <v>5.989754703675737</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.28390681507688</v>
+        <v>19.25096566572332</v>
       </c>
       <c r="G5">
-        <v>2.133286880713469</v>
+        <v>20.23318547723946</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.920179557900987</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.282235991115545</v>
       </c>
       <c r="J5">
-        <v>6.546470425268177</v>
+        <v>8.802951968480487</v>
       </c>
       <c r="K5">
-        <v>9.119632809284402</v>
+        <v>14.36052254899846</v>
       </c>
       <c r="L5">
-        <v>6.618618699682592</v>
+        <v>6.706182651683792</v>
       </c>
       <c r="M5">
-        <v>9.899422888304237</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.62349041473367</v>
+        <v>7.077449219529469</v>
       </c>
       <c r="O5">
-        <v>19.0568398347277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.88838972740212</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.96849997590077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.04988326393977</v>
+        <v>18.43376602835561</v>
       </c>
       <c r="C6">
-        <v>7.02522530135819</v>
+        <v>12.92760629637646</v>
       </c>
       <c r="D6">
-        <v>5.187123051794162</v>
+        <v>5.986233183485775</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.28103634329912</v>
+        <v>19.23989676372075</v>
       </c>
       <c r="G6">
-        <v>2.13348843598936</v>
+        <v>20.21125644703625</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.928706084549855</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.292634332842147</v>
       </c>
       <c r="J6">
-        <v>6.548600212994087</v>
+        <v>8.803231474257842</v>
       </c>
       <c r="K6">
-        <v>9.090309292691186</v>
+        <v>14.36558069809068</v>
       </c>
       <c r="L6">
-        <v>6.615955932357531</v>
+        <v>6.705004673814876</v>
       </c>
       <c r="M6">
-        <v>9.887808935078636</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.63211691440563</v>
+        <v>7.071494557831794</v>
       </c>
       <c r="O6">
-        <v>19.05950730124064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.85980423259711</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.96450477824427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.28466429718848</v>
+        <v>18.87188653159653</v>
       </c>
       <c r="C7">
-        <v>7.037921098216894</v>
+        <v>13.10413050852519</v>
       </c>
       <c r="D7">
-        <v>5.226702558692621</v>
+        <v>6.011656620431259</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.30236550055325</v>
+        <v>19.24755408932235</v>
       </c>
       <c r="G7">
-        <v>2.132098025725985</v>
+        <v>20.24113610829294</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.872338191582497</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.250282172271083</v>
       </c>
       <c r="J7">
-        <v>6.533927122371698</v>
+        <v>8.782251392977551</v>
       </c>
       <c r="K7">
-        <v>9.291890105708442</v>
+        <v>14.29274096796996</v>
       </c>
       <c r="L7">
-        <v>6.634614795920178</v>
+        <v>6.711733939996173</v>
       </c>
       <c r="M7">
-        <v>9.968457472992649</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.57250902411057</v>
+        <v>7.126024024876909</v>
       </c>
       <c r="O7">
-        <v>19.04199372771804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.06832914541227</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.94360590244047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.27883385147285</v>
+        <v>20.6911283984436</v>
       </c>
       <c r="C8">
-        <v>7.094309753855824</v>
+        <v>13.83486332179556</v>
       </c>
       <c r="D8">
-        <v>5.401862524852941</v>
+        <v>6.124327669658711</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.43191321268757</v>
+        <v>19.32288127915455</v>
       </c>
       <c r="G8">
-        <v>2.126172416082307</v>
+        <v>20.44055687726698</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.631969374889284</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.06328046900673</v>
       </c>
       <c r="J8">
-        <v>6.471888466699056</v>
+        <v>8.702664611646172</v>
       </c>
       <c r="K8">
-        <v>10.13290958087469</v>
+        <v>13.99297661385983</v>
       </c>
       <c r="L8">
-        <v>6.721257048903244</v>
+        <v>6.740574787696271</v>
       </c>
       <c r="M8">
-        <v>10.32452189123451</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.31600935113309</v>
+        <v>7.359244209431634</v>
       </c>
       <c r="O8">
-        <v>18.99013368026161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.94495629996862</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.88195661571509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.06741946548598</v>
+        <v>23.84839247304133</v>
       </c>
       <c r="C9">
-        <v>7.206153514046887</v>
+        <v>15.13676755500325</v>
       </c>
       <c r="D9">
-        <v>5.744134738415825</v>
+        <v>6.346383982202491</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.81917295322623</v>
+        <v>19.58593189612733</v>
       </c>
       <c r="G9">
-        <v>2.115277317778983</v>
+        <v>21.01266376383644</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.1912480853043</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.712587874924733</v>
       </c>
       <c r="J9">
-        <v>6.359871264183309</v>
+        <v>8.584659758636548</v>
       </c>
       <c r="K9">
-        <v>11.60756435473254</v>
+        <v>13.4640006684762</v>
       </c>
       <c r="L9">
-        <v>6.906012591244931</v>
+        <v>6.793270759454042</v>
       </c>
       <c r="M9">
-        <v>11.01727398175982</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.83518164958342</v>
+        <v>7.794616637608</v>
       </c>
       <c r="O9">
-        <v>18.98599087600044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.50618020958225</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.84928701501309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.27697237056316</v>
+        <v>25.9309327336075</v>
       </c>
       <c r="C10">
-        <v>7.289080770762697</v>
+        <v>16.1138195861154</v>
       </c>
       <c r="D10">
-        <v>5.99237613334289</v>
+        <v>6.472495519076257</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.18977651806792</v>
+        <v>19.69429646467842</v>
       </c>
       <c r="G10">
-        <v>2.107685029008915</v>
+        <v>21.31817635322438</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.91455387106678</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.488754128114697</v>
       </c>
       <c r="J10">
-        <v>6.283354089293644</v>
+        <v>8.485560770349752</v>
       </c>
       <c r="K10">
-        <v>12.58509337913442</v>
+        <v>13.04531997683266</v>
       </c>
       <c r="L10">
-        <v>7.050201248132717</v>
+        <v>6.836831160813044</v>
       </c>
       <c r="M10">
-        <v>11.51793988267793</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.49409525723324</v>
+        <v>8.031456567818664</v>
       </c>
       <c r="O10">
-        <v>19.04812719493111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.50544807184687</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.78859496612113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.80369736496529</v>
+        <v>26.92854749125031</v>
       </c>
       <c r="C11">
-        <v>7.326972159593584</v>
+        <v>17.15471062370106</v>
       </c>
       <c r="D11">
-        <v>6.10413912671145</v>
+        <v>6.213795818183502</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.3779859621384</v>
+        <v>18.65328474438708</v>
       </c>
       <c r="G11">
-        <v>2.104313756962606</v>
+        <v>19.95823673407905</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.860176769351551</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.571791770604448</v>
       </c>
       <c r="J11">
-        <v>6.249780147858586</v>
+        <v>8.197748932165458</v>
       </c>
       <c r="K11">
-        <v>13.00702942095362</v>
+        <v>12.45323568703476</v>
       </c>
       <c r="L11">
-        <v>7.117495067030323</v>
+        <v>6.980683520893313</v>
       </c>
       <c r="M11">
-        <v>11.74298885823823</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.34125952567146</v>
+        <v>7.52169040675959</v>
       </c>
       <c r="O11">
-        <v>19.09177229916876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.50026134738598</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.14113556637687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.99973012417319</v>
+        <v>27.35154947685109</v>
       </c>
       <c r="C12">
-        <v>7.341345023467845</v>
+        <v>17.81349384621197</v>
       </c>
       <c r="D12">
-        <v>6.146258828736195</v>
+        <v>5.974364333247315</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.45214388142531</v>
+        <v>17.77778441884623</v>
       </c>
       <c r="G12">
-        <v>2.103048413557821</v>
+        <v>18.78112426657624</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.212653536670479</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.589634824955363</v>
       </c>
       <c r="J12">
-        <v>6.237242587754257</v>
+        <v>7.984098535990332</v>
       </c>
       <c r="K12">
-        <v>13.16355802384546</v>
+        <v>12.09482317300217</v>
       </c>
       <c r="L12">
-        <v>7.143210431234142</v>
+        <v>7.168140471738457</v>
       </c>
       <c r="M12">
-        <v>11.82775308272636</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.28369231741465</v>
+        <v>7.056142132027539</v>
       </c>
       <c r="O12">
-        <v>19.1106110605126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.27857731483853</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.62638697226392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.95766392238406</v>
+        <v>27.37105086868971</v>
       </c>
       <c r="C13">
-        <v>7.338248486911876</v>
+        <v>18.26647522226748</v>
       </c>
       <c r="D13">
-        <v>6.137197129576168</v>
+        <v>5.735497372607516</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.4360432499696</v>
+        <v>16.94293721060552</v>
       </c>
       <c r="G13">
-        <v>2.103320435602297</v>
+        <v>17.60460586099373</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.62281445985319</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.564563779442655</v>
       </c>
       <c r="J13">
-        <v>6.239934960871892</v>
+        <v>7.806020017161182</v>
       </c>
       <c r="K13">
-        <v>13.12999092500103</v>
+        <v>11.88139738898394</v>
       </c>
       <c r="L13">
-        <v>7.137662010252527</v>
+        <v>7.390872768850694</v>
       </c>
       <c r="M13">
-        <v>11.80951891296639</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.29607716298476</v>
+        <v>6.602950163330544</v>
       </c>
       <c r="O13">
-        <v>19.10644941500867</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.87525853423899</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.15952157215151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.81989397820998</v>
+        <v>27.20235889887935</v>
       </c>
       <c r="C14">
-        <v>7.328154136319245</v>
+        <v>18.50350019072308</v>
       </c>
       <c r="D14">
-        <v>6.107608588583516</v>
+        <v>5.570930488507976</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.38402875884543</v>
+        <v>16.37796028847762</v>
       </c>
       <c r="G14">
-        <v>2.104209433680688</v>
+        <v>16.77415453984316</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.626057440036625</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.529158898326024</v>
       </c>
       <c r="J14">
-        <v>6.248745151926503</v>
+        <v>7.697766430162734</v>
       </c>
       <c r="K14">
-        <v>13.01997210997088</v>
+        <v>11.80422303306572</v>
       </c>
       <c r="L14">
-        <v>7.119606091251601</v>
+        <v>7.567750458869837</v>
       </c>
       <c r="M14">
-        <v>11.74997198153422</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.33651741162283</v>
+        <v>6.299588593042905</v>
       </c>
       <c r="O14">
-        <v>19.09327528299703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.50600402966184</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.85474978591855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.73505857782531</v>
+        <v>27.07368269535457</v>
       </c>
       <c r="C15">
-        <v>7.321974219196342</v>
+        <v>18.52610254679781</v>
       </c>
       <c r="D15">
-        <v>6.089457390609156</v>
+        <v>5.530465428811405</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.35254622878352</v>
+        <v>16.24432649997579</v>
       </c>
       <c r="G15">
-        <v>2.104755422466401</v>
+        <v>16.56301594275181</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.86012058126471</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.513003976790408</v>
       </c>
       <c r="J15">
-        <v>6.254164552306561</v>
+        <v>7.677512429741823</v>
       </c>
       <c r="K15">
-        <v>12.95215994151152</v>
+        <v>11.80992645227524</v>
       </c>
       <c r="L15">
-        <v>7.108576262893171</v>
+        <v>7.609095908602932</v>
       </c>
       <c r="M15">
-        <v>11.71343637506505</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.36132758934567</v>
+        <v>6.226978680262621</v>
       </c>
       <c r="O15">
-        <v>19.08550970320051</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.37797420304051</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.78721702587354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.24207229201448</v>
+        <v>26.22572760057789</v>
       </c>
       <c r="C16">
-        <v>7.286607852431608</v>
+        <v>18.06914013190479</v>
       </c>
       <c r="D16">
-        <v>5.985045661800736</v>
+        <v>5.522874306095422</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.17787713327778</v>
+        <v>16.35183373957917</v>
       </c>
       <c r="G16">
-        <v>2.10790696087553</v>
+        <v>16.62280716655144</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.66442973377722</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.595788828740774</v>
       </c>
       <c r="J16">
-        <v>6.285572946330742</v>
+        <v>7.753826198286212</v>
       </c>
       <c r="K16">
-        <v>12.55706289824933</v>
+        <v>12.03080862540321</v>
       </c>
       <c r="L16">
-        <v>7.045836649019723</v>
+        <v>7.537507527162353</v>
       </c>
       <c r="M16">
-        <v>11.50317198196946</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.50412803931836</v>
+        <v>6.210888397196173</v>
       </c>
       <c r="O16">
-        <v>19.04559289159327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.02304909651964</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.89976158182563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.93358212599682</v>
+        <v>25.65376558328115</v>
       </c>
       <c r="C17">
-        <v>7.264954601172496</v>
+        <v>17.58131511240654</v>
       </c>
       <c r="D17">
-        <v>5.920668371296255</v>
+        <v>5.603812543566624</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.07579692029145</v>
+        <v>16.73181636303893</v>
       </c>
       <c r="G17">
-        <v>2.109861055420617</v>
+        <v>17.11285293832195</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.951648072361314</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.652469083516265</v>
       </c>
       <c r="J17">
-        <v>6.305156121057691</v>
+        <v>7.868951356325979</v>
       </c>
       <c r="K17">
-        <v>12.3088717754929</v>
+        <v>12.23609772438537</v>
       </c>
       <c r="L17">
-        <v>7.007775173545867</v>
+        <v>7.383605922611687</v>
       </c>
       <c r="M17">
-        <v>11.37343785658073</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.59230913861223</v>
+        <v>6.357225222694497</v>
       </c>
       <c r="O17">
-        <v>19.02511529259057</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.95184614161971</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.14595444580955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.75393577838114</v>
+        <v>25.26833682359215</v>
       </c>
       <c r="C18">
-        <v>7.252515948899428</v>
+        <v>16.99920701890457</v>
       </c>
       <c r="D18">
-        <v>5.88353266260843</v>
+        <v>5.775978155414506</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.01892623260129</v>
+        <v>17.40929594949798</v>
       </c>
       <c r="G18">
-        <v>2.110992800547041</v>
+        <v>18.05345930725992</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.746096547727427</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.66616428709084</v>
       </c>
       <c r="J18">
-        <v>6.316536079710032</v>
+        <v>8.035778819233736</v>
       </c>
       <c r="K18">
-        <v>12.16397622380385</v>
+        <v>12.4785166311907</v>
       </c>
       <c r="L18">
-        <v>6.986044110745078</v>
+        <v>7.169823938980444</v>
       </c>
       <c r="M18">
-        <v>11.29856706268286</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.64324917441961</v>
+        <v>6.678565649127311</v>
       </c>
       <c r="O18">
-        <v>19.01477871166226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.11632844177417</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.5477449128973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.69273256757622</v>
+        <v>25.06649542007629</v>
       </c>
       <c r="C19">
-        <v>7.248307136580054</v>
+        <v>16.44948391825293</v>
       </c>
       <c r="D19">
-        <v>5.870941799122543</v>
+        <v>6.017933672596221</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.9999852680909</v>
+        <v>18.25363643948482</v>
       </c>
       <c r="G19">
-        <v>2.111377347061281</v>
+        <v>19.22744813751092</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.351032544943749</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.662643667603883</v>
       </c>
       <c r="J19">
-        <v>6.320409142034197</v>
+        <v>8.22540000565213</v>
       </c>
       <c r="K19">
-        <v>12.11454849464119</v>
+        <v>12.75142705187534</v>
       </c>
       <c r="L19">
-        <v>6.978714347922582</v>
+        <v>6.973988803247503</v>
       </c>
       <c r="M19">
-        <v>11.27317614712881</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.66053525630864</v>
+        <v>7.148496602277013</v>
       </c>
       <c r="O19">
-        <v>19.011523469844</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.45771902810534</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.02697156467817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.96665064593727</v>
+        <v>25.39825841761195</v>
       </c>
       <c r="C20">
-        <v>7.267257999217554</v>
+        <v>15.9397454420713</v>
       </c>
       <c r="D20">
-        <v>5.927532845302494</v>
+        <v>6.438695076731755</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.08647228130636</v>
+        <v>19.59171266633357</v>
       </c>
       <c r="G20">
-        <v>2.109652235374081</v>
+        <v>21.11223922747866</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.987122039741005</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.574562080286949</v>
       </c>
       <c r="J20">
-        <v>6.303059438438112</v>
+        <v>8.490495082955608</v>
       </c>
       <c r="K20">
-        <v>12.33551374907624</v>
+        <v>13.11467040094162</v>
       </c>
       <c r="L20">
-        <v>7.011810318553971</v>
+        <v>6.825379350014988</v>
       </c>
       <c r="M20">
-        <v>11.3872747836646</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.58289946352273</v>
+        <v>7.978222067553613</v>
       </c>
       <c r="O20">
-        <v>19.02714524427597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.25598622051613</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.75148741910762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.86045363376586</v>
+        <v>26.90027146851317</v>
       </c>
       <c r="C21">
-        <v>7.331118431623529</v>
+        <v>16.55041930932615</v>
       </c>
       <c r="D21">
-        <v>6.116305220732234</v>
+        <v>6.592762854905586</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.39922782241466</v>
+        <v>19.89774186966143</v>
       </c>
       <c r="G21">
-        <v>2.103948011921964</v>
+        <v>21.65806714169475</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.738011294560754</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.620845292576077</v>
       </c>
       <c r="J21">
-        <v>6.246152614329672</v>
+        <v>8.467152189896773</v>
       </c>
       <c r="K21">
-        <v>13.05237530108493</v>
+        <v>12.88268475998874</v>
       </c>
       <c r="L21">
-        <v>7.124903333440503</v>
+        <v>6.846877120248052</v>
       </c>
       <c r="M21">
-        <v>11.76747526322307</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.32463097693706</v>
+        <v>8.267604639561647</v>
       </c>
       <c r="O21">
-        <v>19.09708132313782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>16.06811358204123</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.83772217928806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.42462259628055</v>
+        <v>27.84502540217129</v>
       </c>
       <c r="C22">
-        <v>7.372996398791059</v>
+        <v>16.9426140244784</v>
       </c>
       <c r="D22">
-        <v>6.23848449728774</v>
+        <v>6.673705142367248</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.62048682506039</v>
+        <v>20.07056286072441</v>
       </c>
       <c r="G22">
-        <v>2.100285452345825</v>
+        <v>21.98707009117566</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.590827529484401</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.72822791909014</v>
       </c>
       <c r="J22">
-        <v>6.209986964786463</v>
+        <v>8.449414697665297</v>
       </c>
       <c r="K22">
-        <v>13.501958198558</v>
+        <v>12.72741010489874</v>
       </c>
       <c r="L22">
-        <v>7.200166802712632</v>
+        <v>6.8644098313822</v>
       </c>
       <c r="M22">
-        <v>12.01326867214122</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.1576217832396</v>
+        <v>8.411623101476847</v>
       </c>
       <c r="O22">
-        <v>19.15630666565956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.55035968209567</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.88630075298009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.12535458762393</v>
+        <v>27.34596271424743</v>
       </c>
       <c r="C23">
-        <v>7.350632252220445</v>
+        <v>16.707108933721</v>
       </c>
       <c r="D23">
-        <v>6.173395172655082</v>
+        <v>6.63015461498037</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.50083405193221</v>
+        <v>20.0017135873086</v>
       </c>
       <c r="G23">
-        <v>2.102234437773959</v>
+        <v>21.85186722129173</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.668473502327157</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.665604085970896</v>
       </c>
       <c r="J23">
-        <v>6.229195765471611</v>
+        <v>8.465579749577824</v>
       </c>
       <c r="K23">
-        <v>13.26373116036538</v>
+        <v>12.82408295189826</v>
       </c>
       <c r="L23">
-        <v>7.159877622422592</v>
+        <v>6.855207104149713</v>
       </c>
       <c r="M23">
-        <v>11.88235067149308</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.24660350306739</v>
+        <v>8.330696387671773</v>
       </c>
       <c r="O23">
-        <v>19.12342721025543</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.29156352534462</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.87725488022941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.95170750108852</v>
+        <v>25.36498429352276</v>
       </c>
       <c r="C24">
-        <v>7.266216601538678</v>
+        <v>15.83381939881705</v>
       </c>
       <c r="D24">
-        <v>5.924429801204483</v>
+        <v>6.465273317050777</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.08164029736605</v>
+        <v>19.7230477901708</v>
       </c>
       <c r="G24">
-        <v>2.109746616989544</v>
+        <v>21.30339511392229</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.969686033045469</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.554737762520591</v>
       </c>
       <c r="J24">
-        <v>6.304006970633363</v>
+        <v>8.5235089199331</v>
       </c>
       <c r="K24">
-        <v>12.32347578924794</v>
+        <v>13.17763564114384</v>
       </c>
       <c r="L24">
-        <v>7.009985558290419</v>
+        <v>6.819424631220949</v>
       </c>
       <c r="M24">
-        <v>11.38101999115779</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.58715281707642</v>
+        <v>8.025605310745048</v>
       </c>
       <c r="O24">
-        <v>19.02622303704497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.27845495860347</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.83305242442797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.60155743969463</v>
+        <v>23.03616907452395</v>
       </c>
       <c r="C25">
-        <v>7.175763636898748</v>
+        <v>14.83966701567791</v>
       </c>
       <c r="D25">
-        <v>5.651938304368645</v>
+        <v>6.286805560669309</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.69962076503897</v>
+        <v>19.4676973968557</v>
       </c>
       <c r="G25">
-        <v>2.118150089904987</v>
+        <v>20.77810602225151</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.308283358597566</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.821209045043092</v>
       </c>
       <c r="J25">
-        <v>6.389152773168788</v>
+        <v>8.602635449647785</v>
       </c>
       <c r="K25">
-        <v>11.2272891976009</v>
+        <v>13.58139076908405</v>
       </c>
       <c r="L25">
-        <v>6.854501991343544</v>
+        <v>6.779055002096696</v>
       </c>
       <c r="M25">
-        <v>10.83098962637339</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>13.96301912402324</v>
+        <v>7.685700512751185</v>
       </c>
       <c r="O25">
-        <v>18.97607891057242</v>
+        <v>14.10624287966465</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.82360708080504</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.157749685248</v>
+        <v>21.19502444469227</v>
       </c>
       <c r="C2">
-        <v>13.99022540597416</v>
+        <v>13.94706190000247</v>
       </c>
       <c r="D2">
-        <v>6.154568214166287</v>
+        <v>6.160633694732337</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.37895461553216</v>
+        <v>19.04472546064753</v>
       </c>
       <c r="G2">
-        <v>20.55584626292864</v>
+        <v>19.38320536922868</v>
       </c>
       <c r="H2">
-        <v>2.568062394287844</v>
+        <v>2.491078408940024</v>
       </c>
       <c r="I2">
-        <v>3.002448106108903</v>
+        <v>2.896528046583008</v>
       </c>
       <c r="J2">
-        <v>8.691421084995564</v>
+        <v>9.013019757245349</v>
       </c>
       <c r="K2">
-        <v>13.93114414878065</v>
+        <v>13.56858856360289</v>
       </c>
       <c r="L2">
-        <v>6.748530780451634</v>
+        <v>11.32741186754064</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.692361368336105</v>
       </c>
       <c r="N2">
-        <v>7.415833870006422</v>
+        <v>6.705529101066849</v>
       </c>
       <c r="O2">
-        <v>13.16775716560496</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.540875461364251</v>
       </c>
       <c r="Q2">
-        <v>13.89093135757961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.19639121539836</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.63553417937976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.77778184917819</v>
+        <v>19.82337711409015</v>
       </c>
       <c r="C3">
-        <v>13.4314925882849</v>
+        <v>13.2993764024219</v>
       </c>
       <c r="D3">
-        <v>6.06583411998083</v>
+        <v>6.076068666277895</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.30552294949763</v>
+        <v>18.99796482195181</v>
       </c>
       <c r="G3">
-        <v>20.37671766669722</v>
+        <v>19.27473411459997</v>
       </c>
       <c r="H3">
-        <v>2.753172050596274</v>
+        <v>2.664968322073141</v>
       </c>
       <c r="I3">
-        <v>3.147594124257242</v>
+        <v>3.026873861041138</v>
       </c>
       <c r="J3">
-        <v>8.749292752100253</v>
+        <v>9.04267611615718</v>
       </c>
       <c r="K3">
-        <v>14.15926858353707</v>
+        <v>13.79748258152597</v>
       </c>
       <c r="L3">
-        <v>6.726397374632251</v>
+        <v>11.52296349779438</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.883529319416388</v>
       </c>
       <c r="N3">
-        <v>7.235082457056636</v>
+        <v>6.682932608066393</v>
       </c>
       <c r="O3">
-        <v>12.49728525488543</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.360587107900339</v>
       </c>
       <c r="Q3">
-        <v>13.92857501352099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.51636811833052</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.68808193010687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.87829186184196</v>
+        <v>18.92944862889611</v>
       </c>
       <c r="C4">
-        <v>13.0783950305403</v>
+        <v>12.88927867581054</v>
       </c>
       <c r="D4">
-        <v>6.011652941724151</v>
+        <v>6.024661853760001</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.26981417163079</v>
+        <v>18.97710887421577</v>
       </c>
       <c r="G4">
-        <v>20.28060102809846</v>
+        <v>19.22316091814632</v>
       </c>
       <c r="H4">
-        <v>2.870921095287283</v>
+        <v>2.775605119328914</v>
       </c>
       <c r="I4">
-        <v>3.240650194170594</v>
+        <v>3.110739685995449</v>
       </c>
       <c r="J4">
-        <v>8.78813531266821</v>
+        <v>9.062400881088925</v>
       </c>
       <c r="K4">
-        <v>14.30399141854913</v>
+        <v>13.94173161409636</v>
       </c>
       <c r="L4">
-        <v>6.712235903302363</v>
+        <v>11.64837295599029</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.016890431446765</v>
       </c>
       <c r="N4">
-        <v>7.122457607801662</v>
+        <v>6.668605427336594</v>
       </c>
       <c r="O4">
-        <v>12.06709660788996</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.248643933450085</v>
       </c>
       <c r="Q4">
-        <v>13.9589822067824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.07975445931464</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.72633166802153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.49817928583184</v>
+        <v>18.55172893177162</v>
       </c>
       <c r="C5">
-        <v>12.94044201681823</v>
+        <v>12.72779918343229</v>
       </c>
       <c r="D5">
-        <v>5.989754703675737</v>
+        <v>6.003949208619984</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.25096566572332</v>
+        <v>18.96402473201618</v>
       </c>
       <c r="G5">
-        <v>20.23318547723946</v>
+        <v>19.19407141069353</v>
       </c>
       <c r="H5">
-        <v>2.920179557900987</v>
+        <v>2.821904959815439</v>
       </c>
       <c r="I5">
-        <v>3.282235991115545</v>
+        <v>3.14903037721853</v>
       </c>
       <c r="J5">
-        <v>8.802951968480487</v>
+        <v>9.06901000318897</v>
       </c>
       <c r="K5">
-        <v>14.36052254899846</v>
+        <v>13.99796236630166</v>
       </c>
       <c r="L5">
-        <v>6.706182651683792</v>
+        <v>11.69701176265541</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.073787618074585</v>
       </c>
       <c r="N5">
-        <v>7.077449219529469</v>
+        <v>6.662533589221874</v>
       </c>
       <c r="O5">
-        <v>11.88838972740212</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.203980600780128</v>
       </c>
       <c r="Q5">
-        <v>13.96849997590077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.89827303605829</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.73879487727101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.43376602835561</v>
+        <v>18.48772040509835</v>
       </c>
       <c r="C6">
-        <v>12.92760629637646</v>
+        <v>12.71133309046081</v>
       </c>
       <c r="D6">
-        <v>5.986233183485775</v>
+        <v>6.000629449484453</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.23989676372075</v>
+        <v>18.95401031666679</v>
       </c>
       <c r="G6">
-        <v>20.21125644703625</v>
+        <v>19.17513735719804</v>
       </c>
       <c r="H6">
-        <v>2.928706084549855</v>
+        <v>2.829933239726909</v>
       </c>
       <c r="I6">
-        <v>3.292634332842147</v>
+        <v>3.15950855691492</v>
       </c>
       <c r="J6">
-        <v>8.803231474257842</v>
+        <v>9.067925832834286</v>
       </c>
       <c r="K6">
-        <v>14.36558069809068</v>
+        <v>14.00310634764058</v>
       </c>
       <c r="L6">
-        <v>6.705004673814876</v>
+        <v>11.70053418187153</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.081815310176754</v>
       </c>
       <c r="N6">
-        <v>7.071494557831794</v>
+        <v>6.661377649903367</v>
       </c>
       <c r="O6">
-        <v>11.85980423259711</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.198044672932963</v>
       </c>
       <c r="Q6">
-        <v>13.96450477824427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.86919780368964</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.735359214587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.87188653159653</v>
+        <v>18.92287377300165</v>
       </c>
       <c r="C7">
-        <v>13.10413050852519</v>
+        <v>12.91043103821651</v>
       </c>
       <c r="D7">
-        <v>6.011656620431259</v>
+        <v>6.026977800664455</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.24755408932235</v>
+        <v>18.94402309622414</v>
       </c>
       <c r="G7">
-        <v>20.24113610829294</v>
+        <v>19.25767467618901</v>
       </c>
       <c r="H7">
-        <v>2.872338191582497</v>
+        <v>2.777432020385188</v>
       </c>
       <c r="I7">
-        <v>3.250282172271083</v>
+        <v>3.122426633116521</v>
       </c>
       <c r="J7">
-        <v>8.782251392977551</v>
+        <v>9.025327825340618</v>
       </c>
       <c r="K7">
-        <v>14.29274096796996</v>
+        <v>13.92692905036207</v>
       </c>
       <c r="L7">
-        <v>6.711733939996173</v>
+        <v>11.63245790386395</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.011076487742573</v>
       </c>
       <c r="N7">
-        <v>7.126024024876909</v>
+        <v>6.667824358949503</v>
       </c>
       <c r="O7">
-        <v>12.06832914541227</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.252062896716155</v>
       </c>
       <c r="Q7">
-        <v>13.94360590244047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.08104112566288</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.70245358074337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.6911283984436</v>
+        <v>20.73058755176183</v>
       </c>
       <c r="C8">
-        <v>13.83486332179556</v>
+        <v>13.74653707873179</v>
       </c>
       <c r="D8">
-        <v>6.124327669658711</v>
+        <v>6.139354781473368</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.32288127915455</v>
+        <v>18.96174903389207</v>
       </c>
       <c r="G8">
-        <v>20.44055687726698</v>
+        <v>19.53681173928931</v>
       </c>
       <c r="H8">
-        <v>2.631969374889284</v>
+        <v>2.55255782748914</v>
       </c>
       <c r="I8">
-        <v>3.06328046900673</v>
+        <v>2.955768675180499</v>
       </c>
       <c r="J8">
-        <v>8.702664611646172</v>
+        <v>8.913517574228838</v>
       </c>
       <c r="K8">
-        <v>13.99297661385983</v>
+        <v>13.61870574798832</v>
       </c>
       <c r="L8">
-        <v>6.740574787696271</v>
+        <v>11.36693354252969</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.739303770426663</v>
       </c>
       <c r="N8">
-        <v>7.359244209431634</v>
+        <v>6.696442561183283</v>
       </c>
       <c r="O8">
-        <v>12.94495629996862</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.48413828619961</v>
       </c>
       <c r="Q8">
-        <v>13.88195661571509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.97074909259463</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.60331289691973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.84839247304133</v>
+        <v>23.86906168855758</v>
       </c>
       <c r="C9">
-        <v>15.13676755500325</v>
+        <v>15.25196833259807</v>
       </c>
       <c r="D9">
-        <v>6.346383982202491</v>
+        <v>6.354067210089487</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.58593189612733</v>
+        <v>19.14032586063169</v>
       </c>
       <c r="G9">
-        <v>21.01266376383644</v>
+        <v>20.00312238358213</v>
       </c>
       <c r="H9">
-        <v>2.1912480853043</v>
+        <v>2.13887426341455</v>
       </c>
       <c r="I9">
-        <v>2.712587874924733</v>
+        <v>2.639926242322547</v>
       </c>
       <c r="J9">
-        <v>8.584659758636548</v>
+        <v>8.827120784275087</v>
       </c>
       <c r="K9">
-        <v>13.4640006684762</v>
+        <v>13.07821900714395</v>
       </c>
       <c r="L9">
-        <v>6.793270759454042</v>
+        <v>10.92310050096936</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.35634817092283</v>
       </c>
       <c r="N9">
-        <v>7.794616637608</v>
+        <v>6.750732036118567</v>
       </c>
       <c r="O9">
-        <v>14.50618020958225</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.920514829556621</v>
       </c>
       <c r="Q9">
-        <v>13.84928701501309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.55269737905241</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.51787926293819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.9309327336075</v>
+        <v>25.93873839469865</v>
       </c>
       <c r="C10">
-        <v>16.1138195861154</v>
+        <v>16.33226070158243</v>
       </c>
       <c r="D10">
-        <v>6.472495519076257</v>
+        <v>6.488225795163731</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.69429646467842</v>
+        <v>19.12824808369109</v>
       </c>
       <c r="G10">
-        <v>21.31817635322438</v>
+        <v>20.66989491891819</v>
       </c>
       <c r="H10">
-        <v>1.91455387106678</v>
+        <v>1.883026720058788</v>
       </c>
       <c r="I10">
-        <v>2.488754128114697</v>
+        <v>2.542825435581372</v>
       </c>
       <c r="J10">
-        <v>8.485560770349752</v>
+        <v>8.577312868499568</v>
       </c>
       <c r="K10">
-        <v>13.04531997683266</v>
+        <v>12.63296546930911</v>
       </c>
       <c r="L10">
-        <v>6.836831160813044</v>
+        <v>10.57926923800203</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.104072652137823</v>
       </c>
       <c r="N10">
-        <v>8.031456567818664</v>
+        <v>6.796391121427546</v>
       </c>
       <c r="O10">
-        <v>15.50544807184687</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.157703336710398</v>
       </c>
       <c r="Q10">
-        <v>13.78859496612113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.56354761125834</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.36948659345128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.92854749125031</v>
+        <v>26.93303553159764</v>
       </c>
       <c r="C11">
-        <v>17.15471062370106</v>
+        <v>17.30077405655209</v>
       </c>
       <c r="D11">
-        <v>6.213795818183502</v>
+        <v>6.249622892998039</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.65328474438708</v>
+        <v>18.0235229439742</v>
       </c>
       <c r="G11">
-        <v>19.95823673407905</v>
+        <v>20.29914167331381</v>
       </c>
       <c r="H11">
-        <v>2.860176769351551</v>
+        <v>2.845849565582776</v>
       </c>
       <c r="I11">
-        <v>2.571791770604448</v>
+        <v>2.617177043981263</v>
       </c>
       <c r="J11">
-        <v>8.197748932165458</v>
+        <v>8.04254531084651</v>
       </c>
       <c r="K11">
-        <v>12.45323568703476</v>
+        <v>12.08127492916264</v>
       </c>
       <c r="L11">
-        <v>6.980683520893313</v>
+        <v>10.2192533042003</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.664131703307821</v>
       </c>
       <c r="N11">
-        <v>7.52169040675959</v>
+        <v>6.952754484182619</v>
       </c>
       <c r="O11">
-        <v>15.50026134738598</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.632314673483408</v>
       </c>
       <c r="Q11">
-        <v>13.14113556637687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.55284691616549</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.66927092410924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.35154947685109</v>
+        <v>27.35629901191448</v>
       </c>
       <c r="C12">
-        <v>17.81349384621197</v>
+        <v>17.88563154333693</v>
       </c>
       <c r="D12">
-        <v>5.974364333247315</v>
+        <v>6.015394032789958</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.77778441884623</v>
+        <v>17.16265033483942</v>
       </c>
       <c r="G12">
-        <v>18.78112426657624</v>
+        <v>19.61471091965384</v>
       </c>
       <c r="H12">
-        <v>4.212653536670479</v>
+        <v>4.204299836721729</v>
       </c>
       <c r="I12">
-        <v>2.589634824955363</v>
+        <v>2.631513223110378</v>
       </c>
       <c r="J12">
-        <v>7.984098535990332</v>
+        <v>7.78725552803606</v>
       </c>
       <c r="K12">
-        <v>12.09482317300217</v>
+        <v>11.77783964539141</v>
       </c>
       <c r="L12">
-        <v>7.168140471738457</v>
+        <v>10.04630369204988</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.384817901825404</v>
       </c>
       <c r="N12">
-        <v>7.056142132027539</v>
+        <v>7.147482982942795</v>
       </c>
       <c r="O12">
-        <v>15.27857731483853</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.15361043727675</v>
       </c>
       <c r="Q12">
-        <v>12.62638697226392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.32404804721367</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.16331875245463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.37105086868971</v>
+        <v>27.37911041238846</v>
       </c>
       <c r="C13">
-        <v>18.26647522226748</v>
+        <v>18.27106487911836</v>
       </c>
       <c r="D13">
-        <v>5.735497372607516</v>
+        <v>5.767169609511289</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.94293721060552</v>
+        <v>16.42599039857422</v>
       </c>
       <c r="G13">
-        <v>17.60460586099373</v>
+        <v>18.38668976060638</v>
       </c>
       <c r="H13">
-        <v>5.62281445985319</v>
+        <v>5.615582875365877</v>
       </c>
       <c r="I13">
-        <v>2.564563779442655</v>
+        <v>2.609027925400805</v>
       </c>
       <c r="J13">
-        <v>7.806020017161182</v>
+        <v>7.715307077514612</v>
       </c>
       <c r="K13">
-        <v>11.88139738898394</v>
+        <v>11.62928049119596</v>
       </c>
       <c r="L13">
-        <v>7.390872768850694</v>
+        <v>9.970649113910152</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.2171382348411</v>
       </c>
       <c r="N13">
-        <v>6.602950163330544</v>
+        <v>7.373693849543803</v>
       </c>
       <c r="O13">
-        <v>14.87525853423899</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.688997908562659</v>
       </c>
       <c r="Q13">
-        <v>12.15952157215151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.91147747899923</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.77063141224864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.20235889887935</v>
+        <v>27.21411123595842</v>
       </c>
       <c r="C14">
-        <v>18.50350019072308</v>
+        <v>18.46283054718482</v>
       </c>
       <c r="D14">
-        <v>5.570930488507976</v>
+        <v>5.59111395386696</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.37796028847762</v>
+        <v>15.96188773787626</v>
       </c>
       <c r="G14">
-        <v>16.77415453984316</v>
+        <v>17.2847601549714</v>
       </c>
       <c r="H14">
-        <v>6.626057440036625</v>
+        <v>6.618543684939632</v>
       </c>
       <c r="I14">
-        <v>2.529158898326024</v>
+        <v>2.578512962902317</v>
       </c>
       <c r="J14">
-        <v>7.697766430162734</v>
+        <v>7.728966873345088</v>
       </c>
       <c r="K14">
-        <v>11.80422303306572</v>
+        <v>11.59374433947401</v>
       </c>
       <c r="L14">
-        <v>7.567750458869837</v>
+        <v>9.953471808381604</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.158001968773843</v>
       </c>
       <c r="N14">
-        <v>6.299588593042905</v>
+        <v>7.550612069074729</v>
       </c>
       <c r="O14">
-        <v>14.50600402966184</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.37907230518564</v>
       </c>
       <c r="Q14">
-        <v>11.85474978591855</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.5345753561494</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.54251917758268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.07368269535457</v>
+        <v>27.08698833096623</v>
       </c>
       <c r="C15">
-        <v>18.52610254679781</v>
+        <v>18.47568989646649</v>
       </c>
       <c r="D15">
-        <v>5.530465428811405</v>
+        <v>5.54603246192773</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.24432649997579</v>
+        <v>15.8662479504667</v>
       </c>
       <c r="G15">
-        <v>16.56301594275181</v>
+        <v>16.91060821791063</v>
       </c>
       <c r="H15">
-        <v>6.86012058126471</v>
+        <v>6.852138309037898</v>
       </c>
       <c r="I15">
-        <v>2.513003976790408</v>
+        <v>2.565407093045252</v>
       </c>
       <c r="J15">
-        <v>7.677512429741823</v>
+        <v>7.759585125735214</v>
       </c>
       <c r="K15">
-        <v>11.80992645227524</v>
+        <v>11.60893084004997</v>
       </c>
       <c r="L15">
-        <v>7.609095908602932</v>
+        <v>9.959989519323537</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.164611651865389</v>
       </c>
       <c r="N15">
-        <v>6.226978680262621</v>
+        <v>7.591537013963734</v>
       </c>
       <c r="O15">
-        <v>14.37797420304051</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.305385846942026</v>
       </c>
       <c r="Q15">
-        <v>11.78721702587354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.40415316811608</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.50402578973216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.22572760057789</v>
+        <v>26.2450457955597</v>
       </c>
       <c r="C16">
-        <v>18.06914013190479</v>
+        <v>18.02820867953844</v>
       </c>
       <c r="D16">
-        <v>5.522874306095422</v>
+        <v>5.523299333338569</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.35183373957917</v>
+        <v>16.08487647714557</v>
       </c>
       <c r="G16">
-        <v>16.62280716655144</v>
+        <v>16.19730717765981</v>
       </c>
       <c r="H16">
-        <v>6.66442973377722</v>
+        <v>6.65213269662903</v>
       </c>
       <c r="I16">
-        <v>2.595788828740774</v>
+        <v>2.547844410546977</v>
       </c>
       <c r="J16">
-        <v>7.753826198286212</v>
+        <v>8.032850523288083</v>
       </c>
       <c r="K16">
-        <v>12.03080862540321</v>
+        <v>11.8294318582168</v>
       </c>
       <c r="L16">
-        <v>7.537507527162353</v>
+        <v>10.06394067147628</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.355580921058781</v>
       </c>
       <c r="N16">
-        <v>6.210888397196173</v>
+        <v>7.518313794431661</v>
       </c>
       <c r="O16">
-        <v>14.02304909651964</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.293339636167892</v>
       </c>
       <c r="Q16">
-        <v>11.89976158182563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.04483913866495</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.70202121146127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.65376558328115</v>
+        <v>25.6755361880985</v>
       </c>
       <c r="C17">
-        <v>17.58131511240654</v>
+        <v>17.56542060241761</v>
       </c>
       <c r="D17">
-        <v>5.603812543566624</v>
+        <v>5.599642800684607</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.73181636303893</v>
+        <v>16.48708128702643</v>
       </c>
       <c r="G17">
-        <v>17.11285293832195</v>
+        <v>16.34710135964815</v>
       </c>
       <c r="H17">
-        <v>5.951648072361314</v>
+        <v>5.935213107330761</v>
       </c>
       <c r="I17">
-        <v>2.652469083516265</v>
+        <v>2.597617936224787</v>
       </c>
       <c r="J17">
-        <v>7.868951356325979</v>
+        <v>8.228962465753112</v>
       </c>
       <c r="K17">
-        <v>12.23609772438537</v>
+        <v>12.019035444207</v>
       </c>
       <c r="L17">
-        <v>7.383605922611687</v>
+        <v>10.1678144045898</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.522051320608847</v>
       </c>
       <c r="N17">
-        <v>6.357225222694497</v>
+        <v>7.363602287617899</v>
       </c>
       <c r="O17">
-        <v>13.95184614161971</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.445542953755769</v>
       </c>
       <c r="Q17">
-        <v>12.14595444580955</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.97462188497651</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.96563303154139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.26833682359215</v>
+        <v>25.28993865411607</v>
       </c>
       <c r="C18">
-        <v>16.99920701890457</v>
+        <v>17.03216810607885</v>
       </c>
       <c r="D18">
-        <v>5.775978155414506</v>
+        <v>5.771274121092745</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.40929594949798</v>
+        <v>17.13476503561297</v>
       </c>
       <c r="G18">
-        <v>18.05345930725992</v>
+        <v>17.10250888995734</v>
       </c>
       <c r="H18">
-        <v>4.746096547727427</v>
+        <v>4.724115727819929</v>
       </c>
       <c r="I18">
-        <v>2.66616428709084</v>
+        <v>2.606582988407291</v>
       </c>
       <c r="J18">
-        <v>8.035778819233736</v>
+        <v>8.415729204668029</v>
       </c>
       <c r="K18">
-        <v>12.4785166311907</v>
+        <v>12.23077903605222</v>
       </c>
       <c r="L18">
-        <v>7.169823938980444</v>
+        <v>10.30378199632763</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.702474789113109</v>
       </c>
       <c r="N18">
-        <v>6.678565649127311</v>
+        <v>7.148345772031021</v>
       </c>
       <c r="O18">
-        <v>14.11632844177417</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.775440721372178</v>
       </c>
       <c r="Q18">
-        <v>12.5477449128973</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.14492203389771</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.34595899317143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.06649542007629</v>
+        <v>25.0858974775214</v>
       </c>
       <c r="C19">
-        <v>16.44948391825293</v>
+        <v>16.54781203887873</v>
       </c>
       <c r="D19">
-        <v>6.017933672596221</v>
+        <v>6.014710225387925</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.25363643948482</v>
+        <v>17.91664638810059</v>
       </c>
       <c r="G19">
-        <v>19.22744813751092</v>
+        <v>18.15871224875861</v>
       </c>
       <c r="H19">
-        <v>3.351032544943749</v>
+        <v>3.320701256065201</v>
       </c>
       <c r="I19">
-        <v>2.662643667603883</v>
+        <v>2.604530661347974</v>
       </c>
       <c r="J19">
-        <v>8.22540000565213</v>
+        <v>8.590954796802578</v>
       </c>
       <c r="K19">
-        <v>12.75142705187534</v>
+        <v>12.45896737646562</v>
       </c>
       <c r="L19">
-        <v>6.973988803247503</v>
+        <v>10.46346180063957</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.893476486677862</v>
       </c>
       <c r="N19">
-        <v>7.148496602277013</v>
+        <v>6.948042089276364</v>
       </c>
       <c r="O19">
-        <v>14.45771902810534</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.25631307033742</v>
       </c>
       <c r="Q19">
-        <v>13.02697156467817</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.49535677911859</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.7797436272765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.39825841761195</v>
+        <v>25.4099508938226</v>
       </c>
       <c r="C20">
-        <v>15.9397454420713</v>
+        <v>16.14821632980021</v>
       </c>
       <c r="D20">
-        <v>6.438695076731755</v>
+        <v>6.444349277505433</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.59171266633357</v>
+        <v>19.0987444119619</v>
       </c>
       <c r="G20">
-        <v>21.11223922747866</v>
+        <v>20.11122088501618</v>
       </c>
       <c r="H20">
-        <v>1.987122039741005</v>
+        <v>1.948862524834251</v>
       </c>
       <c r="I20">
-        <v>2.574562080286949</v>
+        <v>2.527423488781776</v>
       </c>
       <c r="J20">
-        <v>8.490495082955608</v>
+        <v>8.728063426533332</v>
       </c>
       <c r="K20">
-        <v>13.11467040094162</v>
+        <v>12.72720798325523</v>
       </c>
       <c r="L20">
-        <v>6.825379350014988</v>
+        <v>10.65176013352108</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.146832249233059</v>
       </c>
       <c r="N20">
-        <v>7.978222067553613</v>
+        <v>6.785676095549207</v>
       </c>
       <c r="O20">
-        <v>15.25598622051613</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.104071828195877</v>
       </c>
       <c r="Q20">
-        <v>13.75148741910762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.31073786456473</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.38899818438746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.90027146851317</v>
+        <v>26.89917411473793</v>
       </c>
       <c r="C21">
-        <v>16.55041930932615</v>
+        <v>16.76924053127399</v>
       </c>
       <c r="D21">
-        <v>6.592762854905586</v>
+        <v>6.648063838749666</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.89774186966143</v>
+        <v>19.08944096352458</v>
       </c>
       <c r="G21">
-        <v>21.65806714169475</v>
+        <v>22.28598352282852</v>
       </c>
       <c r="H21">
-        <v>1.738011294560754</v>
+        <v>1.721751538444037</v>
       </c>
       <c r="I21">
-        <v>2.620845292576077</v>
+        <v>2.661249003806182</v>
       </c>
       <c r="J21">
-        <v>8.467152189896773</v>
+        <v>8.090055101107884</v>
       </c>
       <c r="K21">
-        <v>12.88268475998874</v>
+        <v>12.38692676004425</v>
       </c>
       <c r="L21">
-        <v>6.846877120248052</v>
+        <v>10.4022659133299</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.970024462011264</v>
       </c>
       <c r="N21">
-        <v>8.267604639561647</v>
+        <v>6.801715202387191</v>
       </c>
       <c r="O21">
-        <v>16.06811358204123</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.396754801306708</v>
       </c>
       <c r="Q21">
-        <v>13.83772217928806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.13410295075568</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.22848707380007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.84502540217129</v>
+        <v>27.83598113988456</v>
       </c>
       <c r="C22">
-        <v>16.9426140244784</v>
+        <v>17.1582371565113</v>
       </c>
       <c r="D22">
-        <v>6.673705142367248</v>
+        <v>6.765612759116653</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.07056286072441</v>
+        <v>19.04250572792237</v>
       </c>
       <c r="G22">
-        <v>21.98707009117566</v>
+        <v>23.80509110041682</v>
       </c>
       <c r="H22">
-        <v>1.590827529484401</v>
+        <v>1.588530413515223</v>
       </c>
       <c r="I22">
-        <v>2.72822791909014</v>
+        <v>2.751633431814089</v>
       </c>
       <c r="J22">
-        <v>8.449414697665297</v>
+        <v>7.715730169114937</v>
       </c>
       <c r="K22">
-        <v>12.72741010489874</v>
+        <v>12.15516975194331</v>
       </c>
       <c r="L22">
-        <v>6.8644098313822</v>
+        <v>10.24164859215522</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.855433835604505</v>
       </c>
       <c r="N22">
-        <v>8.411623101476847</v>
+        <v>6.816702147278092</v>
       </c>
       <c r="O22">
-        <v>16.55035968209567</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.542422719559561</v>
       </c>
       <c r="Q22">
-        <v>13.88630075298009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.62242969090093</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.10242072243383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.34596271424743</v>
+        <v>27.34143660367336</v>
       </c>
       <c r="C23">
-        <v>16.707108933721</v>
+        <v>16.93444734620702</v>
       </c>
       <c r="D23">
-        <v>6.63015461498037</v>
+        <v>6.696339813469325</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.0017135873086</v>
+        <v>19.11883259092108</v>
       </c>
       <c r="G23">
-        <v>21.85186722129173</v>
+        <v>22.84061253580002</v>
       </c>
       <c r="H23">
-        <v>1.668473502327157</v>
+        <v>1.658040935124184</v>
       </c>
       <c r="I23">
-        <v>2.665604085970896</v>
+        <v>2.697260249251193</v>
       </c>
       <c r="J23">
-        <v>8.465579749577824</v>
+        <v>7.965777054321177</v>
       </c>
       <c r="K23">
-        <v>12.82408295189826</v>
+        <v>12.30070310679833</v>
       </c>
       <c r="L23">
-        <v>6.855207104149713</v>
+        <v>10.33926323277339</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.93715996075545</v>
       </c>
       <c r="N23">
-        <v>8.330696387671773</v>
+        <v>6.809212418533815</v>
       </c>
       <c r="O23">
-        <v>16.29156352534462</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.460675046919958</v>
       </c>
       <c r="Q23">
-        <v>13.87725488022941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.36035405845824</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.20909822379145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.36498429352276</v>
+        <v>25.37650054139747</v>
       </c>
       <c r="C24">
-        <v>15.83381939881705</v>
+        <v>16.04697437127124</v>
       </c>
       <c r="D24">
-        <v>6.465273317050777</v>
+        <v>6.470823531404192</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.7230477901708</v>
+        <v>19.22364565186169</v>
       </c>
       <c r="G24">
-        <v>21.30339511392229</v>
+        <v>20.27923696368426</v>
       </c>
       <c r="H24">
-        <v>1.969686033045469</v>
+        <v>1.931245243195541</v>
       </c>
       <c r="I24">
-        <v>2.554737762520591</v>
+        <v>2.503748056951634</v>
       </c>
       <c r="J24">
-        <v>8.5235089199331</v>
+        <v>8.76203278396671</v>
       </c>
       <c r="K24">
-        <v>13.17763564114384</v>
+        <v>12.78203975819618</v>
       </c>
       <c r="L24">
-        <v>6.819424631220949</v>
+        <v>10.69011964236068</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.192498677794994</v>
       </c>
       <c r="N24">
-        <v>8.025605310745048</v>
+        <v>6.778171039770418</v>
       </c>
       <c r="O24">
-        <v>15.27845495860347</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.152938080971321</v>
       </c>
       <c r="Q24">
-        <v>13.83305242442797</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.33414721999015</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.46571350118168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.03616907452395</v>
+        <v>23.06189787378777</v>
       </c>
       <c r="C25">
-        <v>14.83966701567791</v>
+        <v>14.90972468179447</v>
       </c>
       <c r="D25">
-        <v>6.286805560669309</v>
+        <v>6.293108011195558</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.4676973968557</v>
+        <v>19.06282885850536</v>
       </c>
       <c r="G25">
-        <v>20.77810602225151</v>
+        <v>19.69176665957558</v>
       </c>
       <c r="H25">
-        <v>2.308283358597566</v>
+        <v>2.248190946712469</v>
       </c>
       <c r="I25">
-        <v>2.821209045043092</v>
+        <v>2.741835676660441</v>
       </c>
       <c r="J25">
-        <v>8.602635449647785</v>
+        <v>8.881996822812845</v>
       </c>
       <c r="K25">
-        <v>13.58139076908405</v>
+        <v>13.20695019547691</v>
       </c>
       <c r="L25">
-        <v>6.779055002096696</v>
+        <v>11.02716188387694</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.434370962144133</v>
       </c>
       <c r="N25">
-        <v>7.685700512751185</v>
+        <v>6.736589614790987</v>
       </c>
       <c r="O25">
-        <v>14.10624287966465</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.810921677450747</v>
       </c>
       <c r="Q25">
-        <v>13.82360708080504</v>
+        <v>14.14740619979849</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.52095328725849</v>
       </c>
     </row>
   </sheetData>
